--- a/data/trans_orig/Q4503_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q4503_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>32281</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22814</v>
+        <v>23544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43825</v>
+        <v>43841</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1186318499335383</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0838410336822825</v>
+        <v>0.08652111553125245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1610545278121567</v>
+        <v>0.1611130873605929</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -764,19 +764,19 @@
         <v>7963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3134</v>
+        <v>3866</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14631</v>
+        <v>15628</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03067188845627411</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01207083772948554</v>
+        <v>0.01489018770540554</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05635823460436173</v>
+        <v>0.06019928905068382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -785,19 +785,19 @@
         <v>40244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28751</v>
+        <v>29827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53211</v>
+        <v>52786</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07568634585483104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05407147055003499</v>
+        <v>0.05609474270809567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1000731328173194</v>
+        <v>0.09927316138858448</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>61877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49092</v>
+        <v>49609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77070</v>
+        <v>78156</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.227395485344149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1804114997913433</v>
+        <v>0.1823089038347821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2832260862111133</v>
+        <v>0.287218031467447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -835,19 +835,19 @@
         <v>48548</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35147</v>
+        <v>36271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62415</v>
+        <v>62177</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1870058155190568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1353848653303535</v>
+        <v>0.1397158584121336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2404216963358357</v>
+        <v>0.2395032637375885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -856,19 +856,19 @@
         <v>110426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91521</v>
+        <v>91640</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>129950</v>
+        <v>130926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2076756639495082</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.172121461326121</v>
+        <v>0.17234652523482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2443952714914579</v>
+        <v>0.2462308172518257</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>85661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71434</v>
+        <v>72057</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101855</v>
+        <v>101677</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3147980601337392</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2625137604587638</v>
+        <v>0.2648034058043702</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.374309280532264</v>
+        <v>0.3736572704356661</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -906,19 +906,19 @@
         <v>51798</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39782</v>
+        <v>39546</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67256</v>
+        <v>66665</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.199526107314675</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1532409256713581</v>
+        <v>0.1523313869426575</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2590686641469113</v>
+        <v>0.2567920148170587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>138</v>
@@ -927,19 +927,19 @@
         <v>137460</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>117888</v>
+        <v>117936</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>158522</v>
+        <v>157772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2585177703654081</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2217098195228532</v>
+        <v>0.2218004249684387</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2981286888196479</v>
+        <v>0.2967189670073472</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>56599</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43399</v>
+        <v>43780</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72503</v>
+        <v>70530</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.207999070970335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.159487693486278</v>
+        <v>0.1608885676861129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2664426808370093</v>
+        <v>0.2591944192225775</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -977,19 +977,19 @@
         <v>66543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52144</v>
+        <v>52073</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81098</v>
+        <v>83058</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2563216226646065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2008570615605362</v>
+        <v>0.2005845682279423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3123884443121536</v>
+        <v>0.3199367482353978</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -998,19 +998,19 @@
         <v>123143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105112</v>
+        <v>104276</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144085</v>
+        <v>143439</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.231592036519965</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1976822229845259</v>
+        <v>0.1961092632552303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.270977753168544</v>
+        <v>0.2697635807724255</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>35695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25685</v>
+        <v>25581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47446</v>
+        <v>48327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1311755336182384</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09438951461201912</v>
+        <v>0.09400951937714479</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1743619209535538</v>
+        <v>0.1775995606713959</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -1048,19 +1048,19 @@
         <v>84755</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69438</v>
+        <v>69622</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100104</v>
+        <v>102305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3264745660453876</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2674729741415109</v>
+        <v>0.2681822702673408</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3855969341256332</v>
+        <v>0.3940753924840074</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -1069,19 +1069,19 @@
         <v>120450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>100445</v>
+        <v>101448</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140686</v>
+        <v>141491</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2265281833102877</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.188904706597046</v>
+        <v>0.1907922770056946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2645854100002011</v>
+        <v>0.2661004548122971</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>91958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75149</v>
+        <v>76013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110898</v>
+        <v>112073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1864996504332267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1524085502488835</v>
+        <v>0.1541611739815621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2249112678510791</v>
+        <v>0.2272939995082927</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -1194,19 +1194,19 @@
         <v>93587</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77312</v>
+        <v>75757</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111793</v>
+        <v>112113</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1857080003167973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1534116247081315</v>
+        <v>0.1503261237927719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2218337138233695</v>
+        <v>0.2224696724791794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -1215,19 +1215,19 @@
         <v>185546</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161580</v>
+        <v>161002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214210</v>
+        <v>213847</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1860995083462332</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1620621192678487</v>
+        <v>0.1614825053149412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2148494156145443</v>
+        <v>0.2144850198597754</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>81266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63647</v>
+        <v>67409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97320</v>
+        <v>101138</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.164814738851741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1290810121781921</v>
+        <v>0.1367105262781118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1973735862438344</v>
+        <v>0.2051165738120243</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -1265,19 +1265,19 @@
         <v>40764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29415</v>
+        <v>29563</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53844</v>
+        <v>55202</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08088822311579079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05836847653085668</v>
+        <v>0.05866247757382688</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1068437466887587</v>
+        <v>0.1095389630536814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>118</v>
@@ -1286,19 +1286,19 @@
         <v>122030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>102573</v>
+        <v>103744</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>143569</v>
+        <v>144436</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1223938126575464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1028789676812082</v>
+        <v>0.1040541265420451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1439978989171432</v>
+        <v>0.1448668871781769</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>124417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>106287</v>
+        <v>106732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>144633</v>
+        <v>144172</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2523296232625006</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2155586559222387</v>
+        <v>0.2164622763876092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2933290764786147</v>
+        <v>0.2923932247051626</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -1336,19 +1336,19 @@
         <v>97824</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>82162</v>
+        <v>81430</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117906</v>
+        <v>116290</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1941148502820932</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1630368806398143</v>
+        <v>0.1615832457564904</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2339645963760821</v>
+        <v>0.2307569622399986</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>216</v>
@@ -1357,19 +1357,19 @@
         <v>222241</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>194556</v>
+        <v>195235</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>252692</v>
+        <v>248007</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2229047797984483</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1951369581431096</v>
+        <v>0.1958182378893794</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.253445913277919</v>
+        <v>0.2487469533772224</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>37055</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26361</v>
+        <v>25956</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50465</v>
+        <v>50081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0751503374628867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05346274681898931</v>
+        <v>0.05264088126871247</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.102347733042726</v>
+        <v>0.1015678614086746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1407,19 +1407,19 @@
         <v>54216</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42391</v>
+        <v>42062</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69553</v>
+        <v>67838</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1075830830469566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0841167316591868</v>
+        <v>0.08346442485356836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1380164595234399</v>
+        <v>0.134612299736381</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -1428,19 +1428,19 @@
         <v>91271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76164</v>
+        <v>74196</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111811</v>
+        <v>109843</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09154357259998626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07639117158508855</v>
+        <v>0.07441795733630885</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1121451176453709</v>
+        <v>0.1101709166827179</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>158378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137968</v>
+        <v>138848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178962</v>
+        <v>180043</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.321205649989645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2798121713069449</v>
+        <v>0.2815961137482345</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.362951381351326</v>
+        <v>0.3651441293536372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -1478,19 +1478,19 @@
         <v>217558</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194341</v>
+        <v>194564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>238511</v>
+        <v>239348</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4317058432383622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3856361422075006</v>
+        <v>0.3860790273825908</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4732840953964235</v>
+        <v>0.4749455867519277</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>369</v>
@@ -1499,19 +1499,19 @@
         <v>375936</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>347662</v>
+        <v>346105</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>405610</v>
+        <v>406075</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3770583265977858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3486997120737735</v>
+        <v>0.3471384247935146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4068205981262532</v>
+        <v>0.4072872674473767</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>30169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20735</v>
+        <v>21063</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42470</v>
+        <v>42663</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0946200049979701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0650310369341887</v>
+        <v>0.06605931628063132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1331993647531201</v>
+        <v>0.1338028689445911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1624,19 +1624,19 @@
         <v>8467</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4484</v>
+        <v>4562</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15271</v>
+        <v>16240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02524476942259122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01336809549397156</v>
+        <v>0.01359988529129705</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04552946391665954</v>
+        <v>0.048418211811073</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1645,19 +1645,19 @@
         <v>38637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28021</v>
+        <v>28192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53177</v>
+        <v>53261</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05905408188076735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04282901623428487</v>
+        <v>0.04308961965035783</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08127887802381693</v>
+        <v>0.0814063488192129</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>53736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40442</v>
+        <v>41564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68415</v>
+        <v>69541</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1685329147291141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1268396103949753</v>
+        <v>0.1303576376270364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2145695881874838</v>
+        <v>0.2181022505350114</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1695,19 +1695,19 @@
         <v>10183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4789</v>
+        <v>5067</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18073</v>
+        <v>17644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03035847639802039</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01427873940227165</v>
+        <v>0.01510639861291702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05388301718553457</v>
+        <v>0.05260422893892325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -1716,19 +1716,19 @@
         <v>63919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49927</v>
+        <v>51621</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79557</v>
+        <v>81756</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09769637760331547</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07631121652772238</v>
+        <v>0.07890035920548481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1215992468000386</v>
+        <v>0.1249597318406994</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>124406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>107051</v>
+        <v>106489</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141247</v>
+        <v>142128</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3901762249729252</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3357450215100072</v>
+        <v>0.333983185994873</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4429954085178515</v>
+        <v>0.4457573939903994</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>106</v>
@@ -1766,19 +1766,19 @@
         <v>107976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>91491</v>
+        <v>91262</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129142</v>
+        <v>125353</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3219203655225488</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2727731848128359</v>
+        <v>0.2720892843293236</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3850264684159479</v>
+        <v>0.373728167510924</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>227</v>
@@ -1787,19 +1787,19 @@
         <v>232382</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>203753</v>
+        <v>207623</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>253447</v>
+        <v>256609</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3551841614595261</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3114256270845681</v>
+        <v>0.3173405730904372</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.387380825656975</v>
+        <v>0.392214430462597</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>16207</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9612</v>
+        <v>9737</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26873</v>
+        <v>26033</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0508313647091641</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03014722220290681</v>
+        <v>0.03053796568302506</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08428125173570511</v>
+        <v>0.08164625359364783</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1837,19 +1837,19 @@
         <v>25905</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17551</v>
+        <v>17397</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36744</v>
+        <v>37467</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07723483241813806</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05232776289846054</v>
+        <v>0.05186681938410737</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1095503031100429</v>
+        <v>0.1117036898858138</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -1858,19 +1858,19 @@
         <v>42113</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30530</v>
+        <v>30381</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55926</v>
+        <v>54926</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06436737211550414</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04666338480055011</v>
+        <v>0.04643507729978736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08548036168748034</v>
+        <v>0.08395234454775444</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>94327</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>79273</v>
+        <v>78498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111664</v>
+        <v>112152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2958394905908265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2486243480031637</v>
+        <v>0.246194947810882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3502132460907927</v>
+        <v>0.3517435124854545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>184</v>
@@ -1908,19 +1908,19 @@
         <v>182881</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164163</v>
+        <v>165355</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>201824</v>
+        <v>199663</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5452415562387015</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4894380167572334</v>
+        <v>0.49299173705707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6017195092804527</v>
+        <v>0.5952756142305075</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>276</v>
@@ -1929,19 +1929,19 @@
         <v>277208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>253548</v>
+        <v>253547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>304569</v>
+        <v>301786</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.423698006940887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3875348486375721</v>
+        <v>0.3875331492265415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4655185983259654</v>
+        <v>0.4612646790889104</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>67011</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54105</v>
+        <v>53264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82820</v>
+        <v>82469</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1868327686210045</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1508498052230907</v>
+        <v>0.1485040355701583</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2309092151695967</v>
+        <v>0.229930456833228</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2054,19 +2054,19 @@
         <v>29966</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21196</v>
+        <v>19906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40912</v>
+        <v>40295</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08087643584744345</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05720765552792077</v>
+        <v>0.05372438352291573</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1104194589692063</v>
+        <v>0.1087524056702891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -2075,19 +2075,19 @@
         <v>96978</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>80595</v>
+        <v>80964</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115910</v>
+        <v>116955</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1329940019919595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1105276027417354</v>
+        <v>0.1110336712502317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.158957023936346</v>
+        <v>0.1603901980167652</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>59913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46846</v>
+        <v>46338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>76071</v>
+        <v>76011</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1670404701388944</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1306104833008765</v>
+        <v>0.129192710458388</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2120917527654798</v>
+        <v>0.2119239354875088</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -2125,19 +2125,19 @@
         <v>19337</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11172</v>
+        <v>12260</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28629</v>
+        <v>28823</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05218891714311572</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03015146378142658</v>
+        <v>0.03308807749409042</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07726900179286592</v>
+        <v>0.07779191711182237</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>78</v>
@@ -2146,19 +2146,19 @@
         <v>79249</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>63356</v>
+        <v>63841</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>98698</v>
+        <v>100150</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1086818444969727</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08688628527514387</v>
+        <v>0.08755039653172889</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1353532062566275</v>
+        <v>0.1373444729722329</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>131608</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>113974</v>
+        <v>113143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>151355</v>
+        <v>149510</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3669312857245722</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3177685027905721</v>
+        <v>0.3154513014945907</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.421987169794396</v>
+        <v>0.41684442828026</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>104</v>
@@ -2196,19 +2196,19 @@
         <v>101521</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>86038</v>
+        <v>85418</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>118848</v>
+        <v>118120</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2739992631028229</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2322109326516811</v>
+        <v>0.2305375352484619</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3207628604831154</v>
+        <v>0.318799851632146</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>236</v>
@@ -2217,19 +2217,19 @@
         <v>233129</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>209652</v>
+        <v>208727</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>259499</v>
+        <v>258152</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3197104604343073</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2875148244872037</v>
+        <v>0.2862459593324505</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3558740076610319</v>
+        <v>0.3540270858904582</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>50869</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39071</v>
+        <v>38788</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64709</v>
+        <v>64763</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1418271258163154</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1089327282839845</v>
+        <v>0.1081429126316469</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1804120356387907</v>
+        <v>0.1805634509817678</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -2267,19 +2267,19 @@
         <v>82780</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68816</v>
+        <v>68235</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98966</v>
+        <v>100094</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2234189942084506</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1857288734392642</v>
+        <v>0.1841607385011552</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2671042279359537</v>
+        <v>0.2701473221868611</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -2288,19 +2288,19 @@
         <v>133650</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113463</v>
+        <v>115059</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>154293</v>
+        <v>154669</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1832857668074091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1556016340370237</v>
+        <v>0.1577911605027636</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2115957783857967</v>
+        <v>0.2121110650891189</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>49270</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36984</v>
+        <v>37746</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>61484</v>
+        <v>63214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1373683496992135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1031145417423298</v>
+        <v>0.105238609492351</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1714228330757546</v>
+        <v>0.176246391670473</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>140</v>
@@ -2338,19 +2338,19 @@
         <v>136912</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>119695</v>
+        <v>119381</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>156718</v>
+        <v>155733</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3695163896981673</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3230502687713168</v>
+        <v>0.3222033192075729</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.422972419093415</v>
+        <v>0.4203127860540094</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>192</v>
@@ -2359,19 +2359,19 @@
         <v>186182</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>163113</v>
+        <v>165205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>209427</v>
+        <v>211583</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2553279262693514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2236913791612778</v>
+        <v>0.2265597774520401</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2872061007773221</v>
+        <v>0.29016288363229</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>47220</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36414</v>
+        <v>35572</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61621</v>
+        <v>60664</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2322565967893797</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1791093336541142</v>
+        <v>0.1749680545783099</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3030936260830022</v>
+        <v>0.2983837614615691</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -2484,19 +2484,19 @@
         <v>32095</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22175</v>
+        <v>23638</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44404</v>
+        <v>45152</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1545482594665744</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1067819746535651</v>
+        <v>0.1138250177776855</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2138222769525293</v>
+        <v>0.2174251595119004</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>79</v>
@@ -2505,19 +2505,19 @@
         <v>79314</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>64599</v>
+        <v>64387</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96402</v>
+        <v>97040</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1929902328435886</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.157184092802281</v>
+        <v>0.1566685493072434</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2345679099616974</v>
+        <v>0.2361198148930403</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>49758</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38722</v>
+        <v>37895</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63040</v>
+        <v>64219</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2447434795057457</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1904602548952073</v>
+        <v>0.1863931436918102</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3100735258249336</v>
+        <v>0.3158704988897025</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -2555,19 +2555,19 @@
         <v>39323</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28537</v>
+        <v>26976</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>51772</v>
+        <v>52387</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1893541064272078</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1374144857769624</v>
+        <v>0.1299000773885483</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.249300141797901</v>
+        <v>0.2522631229895344</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>86</v>
@@ -2576,19 +2576,19 @@
         <v>89081</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>74098</v>
+        <v>72928</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>105887</v>
+        <v>108511</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2167549861604791</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.180296919620413</v>
+        <v>0.1774514259542562</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2576481214070182</v>
+        <v>0.2640331430924979</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>42870</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32220</v>
+        <v>31959</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54693</v>
+        <v>54012</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2108607627411217</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1584773265341708</v>
+        <v>0.1571940797837769</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2690174492042189</v>
+        <v>0.2656647465315212</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>60</v>
@@ -2626,19 +2626,19 @@
         <v>63942</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50866</v>
+        <v>50452</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>77901</v>
+        <v>76318</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3079030116118248</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2449389788756772</v>
+        <v>0.2429470438201732</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3751249294828415</v>
+        <v>0.3675005232405283</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>105</v>
@@ -2647,19 +2647,19 @@
         <v>106811</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>88716</v>
+        <v>88729</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>126735</v>
+        <v>125264</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.259896637057233</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2158666522745512</v>
+        <v>0.2158992184495661</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3083746460070827</v>
+        <v>0.3047973578996334</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>11432</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5916</v>
+        <v>6234</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19414</v>
+        <v>19525</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05623184419711652</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02909987867187657</v>
+        <v>0.03066237816251091</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09549179219767215</v>
+        <v>0.09603820972352685</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2697,19 +2697,19 @@
         <v>16849</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9921</v>
+        <v>10002</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>25940</v>
+        <v>27770</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08113603303938895</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04777434436634964</v>
+        <v>0.04816332827665899</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1249114984728398</v>
+        <v>0.1337233141530725</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>28</v>
@@ -2718,19 +2718,19 @@
         <v>28282</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20187</v>
+        <v>19153</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40379</v>
+        <v>40958</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06881604013471759</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04911940255436793</v>
+        <v>0.04660298358636726</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09825264878450397</v>
+        <v>0.09965949425224462</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>52028</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40299</v>
+        <v>40748</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>66489</v>
+        <v>66350</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2559073167666364</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1982171654942767</v>
+        <v>0.2004253298542186</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3270354316403251</v>
+        <v>0.3263500220644542</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>54</v>
@@ -2768,19 +2768,19 @@
         <v>55460</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43552</v>
+        <v>42962</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69513</v>
+        <v>70292</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.267058589455004</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.209720664903269</v>
+        <v>0.2068767484039391</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3347297371268479</v>
+        <v>0.3384849833981755</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>106</v>
@@ -2789,19 +2789,19 @@
         <v>107488</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>89583</v>
+        <v>91069</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>124833</v>
+        <v>126861</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2615421038039817</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2179765374603848</v>
+        <v>0.2215923989326768</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3037465850382216</v>
+        <v>0.3086818989459656</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>33729</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>23323</v>
+        <v>24185</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45116</v>
+        <v>46556</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.12454635194607</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0861216940098796</v>
+        <v>0.08930400974993093</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1665966753171666</v>
+        <v>0.1719122274758445</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -2914,19 +2914,19 @@
         <v>13939</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7994</v>
+        <v>8426</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>22205</v>
+        <v>22687</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0501149500038281</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02873999878824266</v>
+        <v>0.03029248029677102</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07983113968568643</v>
+        <v>0.08156458447058153</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>47</v>
@@ -2935,19 +2935,19 @@
         <v>47668</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>35979</v>
+        <v>35932</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>61523</v>
+        <v>63745</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08683351990871717</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06554133522748491</v>
+        <v>0.06545561426247026</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.112073248678357</v>
+        <v>0.1161202075393733</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>45159</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>34209</v>
+        <v>33781</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>58264</v>
+        <v>57833</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1667547819937249</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1263220970215186</v>
+        <v>0.1247388906366482</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2151476803606074</v>
+        <v>0.213553671361518</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>22</v>
@@ -2985,19 +2985,19 @@
         <v>21885</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14504</v>
+        <v>13867</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32161</v>
+        <v>30910</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07868405733029203</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05214710692722636</v>
+        <v>0.04985372379368422</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1156286651220026</v>
+        <v>0.1111284610127154</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>66</v>
@@ -3006,19 +3006,19 @@
         <v>67045</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>52314</v>
+        <v>52345</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>83341</v>
+        <v>81712</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1221311908753235</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0952967928368848</v>
+        <v>0.0953547922096286</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1518172377117809</v>
+        <v>0.1488502368103138</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>90971</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>76925</v>
+        <v>77339</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>108763</v>
+        <v>107518</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3359217983002907</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2840533562774045</v>
+        <v>0.2855811034382377</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4016209448152843</v>
+        <v>0.3970224552735324</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>75</v>
@@ -3056,19 +3056,19 @@
         <v>77414</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>62768</v>
+        <v>63303</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>91860</v>
+        <v>92574</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2783227685384718</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2256655324306864</v>
+        <v>0.2275890846030535</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3302620153761808</v>
+        <v>0.3328289170409825</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>165</v>
@@ -3077,19 +3077,19 @@
         <v>168385</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>146320</v>
+        <v>148451</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>189733</v>
+        <v>191350</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3067375766110689</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2665420912867807</v>
+        <v>0.2704246704217124</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3456253289227462</v>
+        <v>0.348571632564457</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>22925</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15135</v>
+        <v>15100</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33795</v>
+        <v>32277</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0846530135096235</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05588691076639709</v>
+        <v>0.05575694909132833</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.124793213278127</v>
+        <v>0.1191849973024394</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>32</v>
@@ -3127,19 +3127,19 @@
         <v>33111</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>23241</v>
+        <v>23947</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>45472</v>
+        <v>45459</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.119042010403643</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08355599333046117</v>
+        <v>0.0860962648188329</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1634830023858173</v>
+        <v>0.1634382522940375</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3148,19 +3148,19 @@
         <v>56036</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42126</v>
+        <v>41570</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>70757</v>
+        <v>72239</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1020771977914619</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07673873962256385</v>
+        <v>0.07572570901374966</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1288937176831429</v>
+        <v>0.1315939955767085</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>78027</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>64328</v>
+        <v>64055</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>93815</v>
+        <v>93717</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2881240542502909</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2375376961333643</v>
+        <v>0.2365312515149655</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3464229734891547</v>
+        <v>0.3460605201329045</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>127</v>
@@ -3198,19 +3198,19 @@
         <v>131795</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>115234</v>
+        <v>115543</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>147801</v>
+        <v>148820</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4738362137237651</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4142949487913184</v>
+        <v>0.4154054682117134</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5313836165597474</v>
+        <v>0.5350462624536368</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>203</v>
@@ -3219,19 +3219,19 @@
         <v>209822</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>186108</v>
+        <v>188852</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>233887</v>
+        <v>234035</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3822205148134286</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3390230000272993</v>
+        <v>0.3440204162420276</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4260588836401082</v>
+        <v>0.4263279213120014</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>145399</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>126732</v>
+        <v>125081</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>169468</v>
+        <v>169704</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2364104685056387</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2060594216674848</v>
+        <v>0.2033753080844654</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2755458876814262</v>
+        <v>0.2759293921671866</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>101</v>
@@ -3344,19 +3344,19 @@
         <v>105955</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>89191</v>
+        <v>88459</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>127512</v>
+        <v>124807</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1660159065220548</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1397493794077433</v>
+        <v>0.1386035883845147</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1997936175774123</v>
+        <v>0.1955549052749343</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>240</v>
@@ -3365,19 +3365,19 @@
         <v>251353</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>224105</v>
+        <v>221637</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>282295</v>
+        <v>281756</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2005618429508932</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.178819489572485</v>
+        <v>0.1768500817083342</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2252511381017949</v>
+        <v>0.2248208926790785</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>77114</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>61671</v>
+        <v>60981</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>92321</v>
+        <v>94405</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1253838504752113</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1002729679688824</v>
+        <v>0.09915255056303494</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1501080482602581</v>
+        <v>0.1534976630728971</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>34</v>
@@ -3415,19 +3415,19 @@
         <v>36660</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>26345</v>
+        <v>25664</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>49404</v>
+        <v>51646</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05744037907160272</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04127906488998124</v>
+        <v>0.0402118563407734</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07740977217658981</v>
+        <v>0.0809217671953702</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>109</v>
@@ -3436,19 +3436,19 @@
         <v>113774</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>94203</v>
+        <v>92241</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>134673</v>
+        <v>131815</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09078344958337072</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07516706912086467</v>
+        <v>0.07360183138687669</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.10745953347915</v>
+        <v>0.105178672529354</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>207621</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>184148</v>
+        <v>185684</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>231238</v>
+        <v>234687</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.337579606324358</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2994152351509579</v>
+        <v>0.3019126480275418</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3759798836161237</v>
+        <v>0.381588339971526</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>152</v>
@@ -3486,19 +3486,19 @@
         <v>156464</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>135432</v>
+        <v>135906</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>180623</v>
+        <v>179234</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2451568300576965</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2122032247673855</v>
+        <v>0.2129463744706128</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2830106129956571</v>
+        <v>0.2808344047290421</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>352</v>
@@ -3507,19 +3507,19 @@
         <v>364084</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>329154</v>
+        <v>329997</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>397975</v>
+        <v>398454</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2905130516679597</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2626414024428777</v>
+        <v>0.2633137890692756</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3175555862244077</v>
+        <v>0.3179372633491304</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>27244</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>17817</v>
+        <v>17757</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>40337</v>
+        <v>39934</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04429780577182989</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02896988100508878</v>
+        <v>0.02887134531040042</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06558553614027191</v>
+        <v>0.06493122326332554</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>34</v>
@@ -3557,19 +3557,19 @@
         <v>34071</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>24327</v>
+        <v>24287</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>47053</v>
+        <v>46209</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05338442611871853</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03811761811970626</v>
+        <v>0.03805406341295532</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07372580841483502</v>
+        <v>0.07240327417672859</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>61</v>
@@ -3578,19 +3578,19 @@
         <v>61315</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>47727</v>
+        <v>46634</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>78544</v>
+        <v>78486</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04892519233685613</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03808286261587719</v>
+        <v>0.03721075605783921</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06267257557317676</v>
+        <v>0.0626265467680583</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>157649</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>137465</v>
+        <v>134731</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>179343</v>
+        <v>179079</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2563282689229622</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2235100261267411</v>
+        <v>0.2190650285336567</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2916025601740732</v>
+        <v>0.2911718947353585</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>299</v>
@@ -3628,19 +3628,19 @@
         <v>305070</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>278809</v>
+        <v>279000</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>329316</v>
+        <v>330203</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4780024582299275</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4368541598462418</v>
+        <v>0.4371543343958449</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5159914127325532</v>
+        <v>0.5173825923567977</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>456</v>
@@ -3649,19 +3649,19 @@
         <v>462719</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>428075</v>
+        <v>429656</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>497328</v>
+        <v>496617</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3692164634609203</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3415733528867583</v>
+        <v>0.342834758175264</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3968319434768915</v>
+        <v>0.3962645732981018</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>186101</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>159751</v>
+        <v>166787</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>209566</v>
+        <v>212289</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2505471054802352</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2150730237367754</v>
+        <v>0.224544876546795</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2821391776127978</v>
+        <v>0.2858049389247892</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>84</v>
@@ -3774,19 +3774,19 @@
         <v>89019</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>72290</v>
+        <v>70856</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>109577</v>
+        <v>108929</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.114071224593504</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.09263364734610623</v>
+        <v>0.09079669261292107</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1404138353603365</v>
+        <v>0.1395834284886313</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>268</v>
@@ -3795,19 +3795,19 @@
         <v>275120</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>247872</v>
+        <v>244778</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>305561</v>
+        <v>305126</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1806242974997421</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1627354033350691</v>
+        <v>0.1607041377652891</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2006098524687836</v>
+        <v>0.200323830667612</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>190334</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>168567</v>
+        <v>165150</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>214531</v>
+        <v>214468</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2562460904848726</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2269419385282076</v>
+        <v>0.2223406908884107</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2888230123223858</v>
+        <v>0.2887380614213921</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>149</v>
@@ -3845,19 +3845,19 @@
         <v>153591</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>131385</v>
+        <v>133083</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>177568</v>
+        <v>177137</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1968146454573009</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1683595080589878</v>
+        <v>0.1705352538682447</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2275390910363647</v>
+        <v>0.2269866731902534</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>343</v>
@@ -3866,19 +3866,19 @@
         <v>343925</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>314653</v>
+        <v>314652</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>383771</v>
+        <v>377889</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2257966550852572</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2065784879337178</v>
+        <v>0.2065783380106438</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2519569774458935</v>
+        <v>0.2480952588235013</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>157855</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>136608</v>
+        <v>137169</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>182718</v>
+        <v>181352</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2125196332851189</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1839148080618798</v>
+        <v>0.184670418449375</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2459934049822122</v>
+        <v>0.2441542883171947</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>175</v>
@@ -3916,19 +3916,19 @@
         <v>182935</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>160283</v>
+        <v>161741</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>209943</v>
+        <v>207646</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2344163695128631</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2053902126171926</v>
+        <v>0.2072577835222317</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2690244790105992</v>
+        <v>0.266081868243803</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>325</v>
@@ -3937,19 +3937,19 @@
         <v>340790</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>308689</v>
+        <v>304704</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>373371</v>
+        <v>372174</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2237383282860531</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2026636009957945</v>
+        <v>0.2000471095052129</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2451286714790592</v>
+        <v>0.244343148111592</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>87524</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>71479</v>
+        <v>71316</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>106500</v>
+        <v>107061</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1178333695988657</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09623147027896224</v>
+        <v>0.09601324870104729</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1433810215556492</v>
+        <v>0.1441359073533781</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>110</v>
@@ -3987,19 +3987,19 @@
         <v>115982</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>97557</v>
+        <v>97129</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>136049</v>
+        <v>137714</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1486212535936852</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1250110252265942</v>
+        <v>0.1244623906500298</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1743352923190676</v>
+        <v>0.1764697663367922</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>199</v>
@@ -4008,19 +4008,19 @@
         <v>203506</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>178263</v>
+        <v>175689</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>233012</v>
+        <v>231014</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1336074044444966</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1170347157855926</v>
+        <v>0.1153452198583712</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1529791268687106</v>
+        <v>0.1516672253371727</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>120964</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>100886</v>
+        <v>101188</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>142667</v>
+        <v>142419</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1628538011509075</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1358221025141764</v>
+        <v>0.1362297141418585</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1920718000809589</v>
+        <v>0.1917382124086261</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>224</v>
@@ -4058,19 +4058,19 @@
         <v>238858</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>213170</v>
+        <v>213680</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>268000</v>
+        <v>266289</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3060765068426468</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2731604172088217</v>
+        <v>0.2738139118252517</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3434205663921742</v>
+        <v>0.3412276711085981</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>342</v>
@@ -4079,19 +4079,19 @@
         <v>359822</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>325453</v>
+        <v>327650</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>392743</v>
+        <v>397023</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.236233314684451</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2136694454931391</v>
+        <v>0.2151115772141299</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2578472673478324</v>
+        <v>0.2606568168259452</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>633868</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>590453</v>
+        <v>589200</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>677606</v>
+        <v>681030</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1935694033520363</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1803112922043864</v>
+        <v>0.1799288114494503</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2069261631916076</v>
+        <v>0.2079715936705604</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>367</v>
@@ -4204,19 +4204,19 @@
         <v>380991</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>344431</v>
+        <v>347665</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>420280</v>
+        <v>416636</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1129230992734299</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1020869407964205</v>
+        <v>0.1030452886736398</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1245679649896695</v>
+        <v>0.1234880437743741</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>985</v>
@@ -4225,19 +4225,19 @@
         <v>1014859</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>952283</v>
+        <v>959306</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1078038</v>
+        <v>1071588</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1526441705231706</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1432320704323415</v>
+        <v>0.1442884383901005</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1621468806622661</v>
+        <v>0.1611767200100978</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>619158</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>573161</v>
+        <v>572662</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>663879</v>
+        <v>664419</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1890771834888444</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1750308329565853</v>
+        <v>0.1748785370713576</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2027342058401747</v>
+        <v>0.2028989503509739</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>356</v>
@@ -4275,19 +4275,19 @@
         <v>370290</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>337516</v>
+        <v>335739</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>407288</v>
+        <v>408607</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1097513367659772</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1000372100669478</v>
+        <v>0.09951054848024379</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1207173062064855</v>
+        <v>0.1211083147584401</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>966</v>
@@ -4296,19 +4296,19 @@
         <v>989448</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>935067</v>
+        <v>932159</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1053235</v>
+        <v>1047173</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1488220374710437</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1406427194970815</v>
+        <v>0.1402052874009591</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1584162468330269</v>
+        <v>0.1575043801597314</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>965408</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>915845</v>
+        <v>912722</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1021293</v>
+        <v>1022707</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2948145930381582</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2796790895839561</v>
+        <v>0.2787253096786352</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3118805371687904</v>
+        <v>0.3123122273535685</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>818</v>
@@ -4346,19 +4346,19 @@
         <v>839874</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>789348</v>
+        <v>790211</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>894559</v>
+        <v>892273</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2489325691303821</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2339571553449453</v>
+        <v>0.2342127625305676</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2651408374964708</v>
+        <v>0.2644632750611108</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1764</v>
@@ -4367,19 +4367,19 @@
         <v>1805282</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1729083</v>
+        <v>1727047</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1879887</v>
+        <v>1881630</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2715310398420305</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2600700076595179</v>
+        <v>0.2597636863663494</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2827523382957835</v>
+        <v>0.2830144604752385</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>309857</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>280075</v>
+        <v>277615</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>348124</v>
+        <v>345105</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.09462339234876335</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.08552880801307182</v>
+        <v>0.08477745603294137</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1063095838508</v>
+        <v>0.105387467487216</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>420</v>
@@ -4417,19 +4417,19 @@
         <v>429458</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>394129</v>
+        <v>393725</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>472091</v>
+        <v>466916</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1272883265169381</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1168170060318462</v>
+        <v>0.1166972104668254</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1399244216867164</v>
+        <v>0.1383904413581692</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>725</v>
@@ -4438,19 +4438,19 @@
         <v>739315</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>689605</v>
+        <v>693283</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>790970</v>
+        <v>788893</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1111997259011245</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1037229849243006</v>
+        <v>0.104276117173302</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1189692150496414</v>
+        <v>0.1186568166145056</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>746338</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>699602</v>
+        <v>700192</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>796674</v>
+        <v>794939</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2279154277721978</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2136431275551177</v>
+        <v>0.2138232456554198</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2432869170459557</v>
+        <v>0.242756818288827</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1330</v>
@@ -4488,19 +4488,19 @@
         <v>1353287</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1291971</v>
+        <v>1296838</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1408289</v>
+        <v>1410768</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4011046683132727</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3829310161383119</v>
+        <v>0.3843733696523309</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4174066591574074</v>
+        <v>0.4181414447847883</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2063</v>
@@ -4509,19 +4509,19 @@
         <v>2099626</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2014459</v>
+        <v>2023267</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2174579</v>
+        <v>2181633</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3158030262626307</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3029931091968517</v>
+        <v>0.30431794811209</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3270767078079603</v>
+        <v>0.3281376392417455</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>77069</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62600</v>
+        <v>63564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93843</v>
+        <v>94611</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2631186610188178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2137223465521615</v>
+        <v>0.2170113732095495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3203865407547806</v>
+        <v>0.3230100596238661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -4878,19 +4878,19 @@
         <v>58955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45342</v>
+        <v>44072</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74597</v>
+        <v>73959</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2075152194059953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1595984106320867</v>
+        <v>0.1551284266925441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2625726001245735</v>
+        <v>0.2603286361095321</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -4899,19 +4899,19 @@
         <v>136024</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114875</v>
+        <v>116156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157370</v>
+        <v>156795</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2357412742970284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1990890399512493</v>
+        <v>0.2013085855790915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.272735955322752</v>
+        <v>0.2717397151356898</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>31373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20833</v>
+        <v>20868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44181</v>
+        <v>42444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1071097949473903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07112510490554767</v>
+        <v>0.07124584634489203</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1508361737162269</v>
+        <v>0.1449072400077319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -4949,19 +4949,19 @@
         <v>24805</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16549</v>
+        <v>16304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36890</v>
+        <v>37114</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08731042419446632</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05825165505397108</v>
+        <v>0.0573900798520828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1298503966518972</v>
+        <v>0.1306383392225877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -4970,19 +4970,19 @@
         <v>56178</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43184</v>
+        <v>42735</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72023</v>
+        <v>72919</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09736120719404007</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07484183317001257</v>
+        <v>0.07406291605384903</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1248230938769637</v>
+        <v>0.1263744276154776</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>40679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29413</v>
+        <v>29524</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55003</v>
+        <v>53586</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1388825955789314</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1004184828415226</v>
+        <v>0.1007986122559905</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1877831768689709</v>
+        <v>0.1829466368448216</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -5020,19 +5020,19 @@
         <v>40241</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28900</v>
+        <v>29077</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53721</v>
+        <v>53904</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1416457728890847</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1017264253783412</v>
+        <v>0.1023496504807724</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1890922835784217</v>
+        <v>0.1897361762817989</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>76</v>
@@ -5041,19 +5041,19 @@
         <v>80921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64660</v>
+        <v>64327</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99815</v>
+        <v>99330</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1402430972242737</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.112061178101763</v>
+        <v>0.1114840418171612</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1729891122801721</v>
+        <v>0.1721471551256893</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>16392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9916</v>
+        <v>9381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26351</v>
+        <v>25523</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05596342327393734</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03385564570812808</v>
+        <v>0.03202746439197692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08996390900790777</v>
+        <v>0.08713915174910017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5091,19 +5091,19 @@
         <v>13734</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7594</v>
+        <v>7436</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24417</v>
+        <v>23530</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04834114775039468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02672990266926844</v>
+        <v>0.02617461872259599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08594688434109547</v>
+        <v>0.08282411108468371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -5112,19 +5112,19 @@
         <v>30126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20108</v>
+        <v>20411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41651</v>
+        <v>43390</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05221045441706114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03484843719077599</v>
+        <v>0.03537344298624485</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07218525132159434</v>
+        <v>0.07519868475860628</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>127392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110757</v>
+        <v>111102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145948</v>
+        <v>146152</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4349255251809231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3781336994487962</v>
+        <v>0.3793094475193753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4982784315193594</v>
+        <v>0.4989724576184394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -5162,19 +5162,19 @@
         <v>146364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128303</v>
+        <v>126642</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>164978</v>
+        <v>163588</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.515187435760059</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.451611967947723</v>
+        <v>0.4457684495401062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5807043949384315</v>
+        <v>0.5758128800589063</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>255</v>
@@ -5183,19 +5183,19 @@
         <v>273756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>250854</v>
+        <v>247502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>299082</v>
+        <v>300041</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4744439668675966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4347526684489819</v>
+        <v>0.428942688863492</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5183368933295981</v>
+        <v>0.5199982485121029</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>76323</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60055</v>
+        <v>59002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95835</v>
+        <v>93238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1509770849570383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1187976231598695</v>
+        <v>0.1167136361195215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1895739021966922</v>
+        <v>0.1844369999003684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5308,19 +5308,19 @@
         <v>42448</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29653</v>
+        <v>30643</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57735</v>
+        <v>58506</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08120262075848736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05672640221859116</v>
+        <v>0.05862027966321818</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1104477194866205</v>
+        <v>0.1119217325710979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -5329,19 +5329,19 @@
         <v>118771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97202</v>
+        <v>96009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143466</v>
+        <v>140638</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1155059694286057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09453051021980328</v>
+        <v>0.09336991337189257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1395223088985592</v>
+        <v>0.1367725530295845</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>63186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47211</v>
+        <v>49682</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82949</v>
+        <v>80631</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1249905435471775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09339024249379928</v>
+        <v>0.09827806608045875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1640839477346056</v>
+        <v>0.1594996363492285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -5379,19 +5379,19 @@
         <v>42294</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31129</v>
+        <v>31396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56691</v>
+        <v>57650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08090835674345921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05955051446942215</v>
+        <v>0.06006158483834743</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1084506222850443</v>
+        <v>0.1102853150579762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -5400,19 +5400,19 @@
         <v>105480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86191</v>
+        <v>85386</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125979</v>
+        <v>127611</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.102580563638036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08382182686181687</v>
+        <v>0.08303924477550031</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.122516169010293</v>
+        <v>0.1241037390224955</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>68672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54608</v>
+        <v>53990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86295</v>
+        <v>85312</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.135843250897591</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1080220395020557</v>
+        <v>0.1067988627859907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1707023468077389</v>
+        <v>0.1687586607245468</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -5450,19 +5450,19 @@
         <v>65395</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50489</v>
+        <v>50725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79761</v>
+        <v>81229</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1251011450709619</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09658670838996365</v>
+        <v>0.09703670720088152</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1525830080370547</v>
+        <v>0.1553919825352202</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>131</v>
@@ -5471,19 +5471,19 @@
         <v>134067</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>113307</v>
+        <v>112702</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>157899</v>
+        <v>157608</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1303823063934421</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1101922994654665</v>
+        <v>0.1096037879492094</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.153558466051038</v>
+        <v>0.1532757320297694</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>22506</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15044</v>
+        <v>13896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33070</v>
+        <v>32037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0445204927801829</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0297583663559652</v>
+        <v>0.02748729776070734</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0654162963482114</v>
+        <v>0.06337316155909491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -5521,19 +5521,19 @@
         <v>18563</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11384</v>
+        <v>11236</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28415</v>
+        <v>29037</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03551079076745808</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02177830103390707</v>
+        <v>0.02149461699388695</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05435891366393918</v>
+        <v>0.0555476416624205</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -5542,19 +5542,19 @@
         <v>41069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29976</v>
+        <v>29589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54376</v>
+        <v>53793</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03994024720408357</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02915221621519981</v>
+        <v>0.02877536706505802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05288143083619387</v>
+        <v>0.0523148054552808</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>274839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252465</v>
+        <v>253022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>300184</v>
+        <v>299190</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5436686278180103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4994103928111243</v>
+        <v>0.5005114563342596</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5938048986433127</v>
+        <v>0.591837838671684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>321</v>
@@ -5592,19 +5592,19 @@
         <v>354038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332091</v>
+        <v>330638</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>376016</v>
+        <v>375610</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6772770866596335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6352926335125009</v>
+        <v>0.6325137638336547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.719321452527372</v>
+        <v>0.7185453092453804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>579</v>
@@ -5613,19 +5613,19 @@
         <v>628877</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>594082</v>
+        <v>596960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>663395</v>
+        <v>660989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6115909133358326</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.577752091285334</v>
+        <v>0.5805508633357461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6451601859693228</v>
+        <v>0.6428198935684286</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>122659</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105385</v>
+        <v>104821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140671</v>
+        <v>139503</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3809082879514376</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3272651708742451</v>
+        <v>0.325514518807428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4368437203392886</v>
+        <v>0.4332165033445829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -5738,19 +5738,19 @@
         <v>78019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64022</v>
+        <v>64021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95671</v>
+        <v>93641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2287826182774301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1877368059034061</v>
+        <v>0.1877330791286606</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2805449608575745</v>
+        <v>0.2745902419734535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -5759,19 +5759,19 @@
         <v>200678</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177868</v>
+        <v>176927</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226653</v>
+        <v>225345</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3026654554538375</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2682631172293583</v>
+        <v>0.2668439888783724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3418401006589769</v>
+        <v>0.339868342452549</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>84093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69092</v>
+        <v>69972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102958</v>
+        <v>102485</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2611460211045633</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2145588991730269</v>
+        <v>0.2172920652563607</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.319727127175214</v>
+        <v>0.3182608358458511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -5809,19 +5809,19 @@
         <v>84768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69135</v>
+        <v>69148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101827</v>
+        <v>101091</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2485728708178015</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2027295298993839</v>
+        <v>0.2027667600390622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2985943646251685</v>
+        <v>0.2964365333494731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -5830,19 +5830,19 @@
         <v>168862</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146955</v>
+        <v>147949</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190653</v>
+        <v>194364</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2546792696748909</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2216390025045314</v>
+        <v>0.2231390975724692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2875450299436969</v>
+        <v>0.2931419450067467</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>73491</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59793</v>
+        <v>59538</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>89338</v>
+        <v>88969</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2282202193317137</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1856829458882613</v>
+        <v>0.1848907924094701</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2774325463608108</v>
+        <v>0.2762880893320863</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -5880,19 +5880,19 @@
         <v>68093</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53964</v>
+        <v>54254</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85134</v>
+        <v>85216</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1996744419849671</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1582439177042409</v>
+        <v>0.1590923190266824</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2496448202164534</v>
+        <v>0.2498867331062209</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>139</v>
@@ -5901,19 +5901,19 @@
         <v>141584</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122313</v>
+        <v>121183</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165906</v>
+        <v>161985</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2135382627609293</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.184473775857302</v>
+        <v>0.1827700289000277</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.250220651430376</v>
+        <v>0.2443080524784502</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>7606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3749</v>
+        <v>3730</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14430</v>
+        <v>14309</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02362113581424709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01164287532482779</v>
+        <v>0.01158394364892254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04481193052460203</v>
+        <v>0.04443483134601992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5951,19 +5951,19 @@
         <v>29421</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20514</v>
+        <v>19580</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42193</v>
+        <v>41736</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08627208755341839</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06015581957523914</v>
+        <v>0.05741623168436347</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1237254248425653</v>
+        <v>0.1223871394120928</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -5972,19 +5972,19 @@
         <v>37027</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26038</v>
+        <v>26890</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49869</v>
+        <v>51722</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0558444149836848</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03927060686111823</v>
+        <v>0.04055548178223468</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07521262692628136</v>
+        <v>0.07800829746667319</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>34167</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23563</v>
+        <v>24477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45692</v>
+        <v>46557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1061043357980382</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07317417849142535</v>
+        <v>0.07601072558105292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1418946569782361</v>
+        <v>0.1445790637529582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>76</v>
@@ -6022,19 +6022,19 @@
         <v>80719</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65052</v>
+        <v>65701</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96785</v>
+        <v>96372</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2366979813663829</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1907566281394285</v>
+        <v>0.1926615795063632</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2838108902005916</v>
+        <v>0.2826001888882424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>110</v>
@@ -6043,19 +6043,19 @@
         <v>114886</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>96825</v>
+        <v>96783</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136769</v>
+        <v>135834</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1732725971266575</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1460323714775423</v>
+        <v>0.1459688447646708</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2062761568487339</v>
+        <v>0.2048661612476137</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>58341</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43591</v>
+        <v>43776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72519</v>
+        <v>73114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1564030859015556</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1168616847384348</v>
+        <v>0.1173561274562311</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1944112352720857</v>
+        <v>0.19600802690626</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -6168,19 +6168,19 @@
         <v>31369</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22640</v>
+        <v>21320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44332</v>
+        <v>43153</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08083703504570862</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05834464300182855</v>
+        <v>0.05494187779870534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1142430337270017</v>
+        <v>0.1112051573131405</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -6189,19 +6189,19 @@
         <v>89710</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73208</v>
+        <v>72463</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109506</v>
+        <v>108179</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.117873895127478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09619118097995452</v>
+        <v>0.09521324496610746</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1438858117193929</v>
+        <v>0.142142327491695</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>83274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65857</v>
+        <v>67000</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>100295</v>
+        <v>102020</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2232434761846905</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1765513424690525</v>
+        <v>0.1796174824231281</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2688753861748137</v>
+        <v>0.2734984921355408</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -6239,19 +6239,19 @@
         <v>82142</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>66917</v>
+        <v>64606</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>98454</v>
+        <v>99844</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2116815901631485</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1724467150635673</v>
+        <v>0.1664890716174859</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2537167471476092</v>
+        <v>0.2572989765017353</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>153</v>
@@ -6260,19 +6260,19 @@
         <v>165416</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>142763</v>
+        <v>143335</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>190489</v>
+        <v>188893</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2173483671087652</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1875831947265466</v>
+        <v>0.1883346537033725</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2502928966062856</v>
+        <v>0.248195621484985</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>70246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56257</v>
+        <v>55687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>87475</v>
+        <v>87068</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1883176166018445</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1508168788052683</v>
+        <v>0.1492871936802417</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2345070678569157</v>
+        <v>0.2334156991819222</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -6310,19 +6310,19 @@
         <v>62677</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49351</v>
+        <v>48104</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77982</v>
+        <v>77112</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1615187881631435</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1271781828904435</v>
+        <v>0.1239637336811102</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2009602307334782</v>
+        <v>0.1987175064380803</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -6331,19 +6331,19 @@
         <v>132923</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>111441</v>
+        <v>111874</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>155065</v>
+        <v>154578</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1746535814730775</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.146428304769815</v>
+        <v>0.1469969421130912</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2037475904233499</v>
+        <v>0.203108153070011</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>14136</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7436</v>
+        <v>7732</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24414</v>
+        <v>23613</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03789579523661495</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01993608806887333</v>
+        <v>0.02072709415914048</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06545032863987492</v>
+        <v>0.06330241984481857</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -6381,19 +6381,19 @@
         <v>47318</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33248</v>
+        <v>34945</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61668</v>
+        <v>61841</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1219399344143443</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08568142267828095</v>
+        <v>0.09005304377475828</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1589200175651787</v>
+        <v>0.1593639722890637</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -6402,19 +6402,19 @@
         <v>61454</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46615</v>
+        <v>46604</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79223</v>
+        <v>77288</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08074774575073014</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06125002836339858</v>
+        <v>0.06123530349358469</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1040949802508067</v>
+        <v>0.1015522062574234</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>147021</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126455</v>
+        <v>128254</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167364</v>
+        <v>166015</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3941400260752945</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.339006982858398</v>
+        <v>0.3438281383244883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4486774421405364</v>
+        <v>0.4450614413011831</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>161</v>
@@ -6452,19 +6452,19 @@
         <v>164541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>143816</v>
+        <v>145076</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>184236</v>
+        <v>184058</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4240226522136551</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3706139710305018</v>
+        <v>0.3738619417137873</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4747778021069744</v>
+        <v>0.474319599183973</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>294</v>
@@ -6473,19 +6473,19 @@
         <v>311562</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>280666</v>
+        <v>282708</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338335</v>
+        <v>339157</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4093764105399492</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3687816380186653</v>
+        <v>0.3714643963105752</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4445554827630534</v>
+        <v>0.4456347286833887</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>32043</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22207</v>
+        <v>21875</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43052</v>
+        <v>44012</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1507047962302108</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1044440737937028</v>
+        <v>0.1028849390965101</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.202483688988691</v>
+        <v>0.2070020639805636</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -6598,19 +6598,19 @@
         <v>10957</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5071</v>
+        <v>5851</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18500</v>
+        <v>18356</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04989730270929545</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02309404483616638</v>
+        <v>0.02664379142919196</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08424724001102647</v>
+        <v>0.08359302750038689</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>39</v>
@@ -6619,19 +6619,19 @@
         <v>43000</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29902</v>
+        <v>30619</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>56396</v>
+        <v>56522</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0994878704059932</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06918454754202001</v>
+        <v>0.07084224055405414</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1304838362926325</v>
+        <v>0.1307746534162908</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>44455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33197</v>
+        <v>32613</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>57953</v>
+        <v>59286</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.209083452091948</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1561363448032952</v>
+        <v>0.1533855432296856</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2725676803479886</v>
+        <v>0.2788360658366855</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -6669,19 +6669,19 @@
         <v>16808</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10086</v>
+        <v>9790</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25992</v>
+        <v>25002</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0765440818802413</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04593066580895402</v>
+        <v>0.04458208013521949</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1183641210398567</v>
+        <v>0.1138579636074911</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>59</v>
@@ -6690,19 +6690,19 @@
         <v>61263</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47649</v>
+        <v>48199</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76784</v>
+        <v>78776</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.141744617886006</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.110246309956108</v>
+        <v>0.111516988067743</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1776550630263174</v>
+        <v>0.1822636464640087</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>75462</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>61379</v>
+        <v>62714</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90383</v>
+        <v>91030</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3549198183845693</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2886822961582725</v>
+        <v>0.2949622277693214</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4250970721484721</v>
+        <v>0.4281394301183696</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -6740,19 +6740,19 @@
         <v>60252</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47400</v>
+        <v>47614</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>74076</v>
+        <v>75309</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2743815536306562</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2158571023573504</v>
+        <v>0.2168300775827149</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3373363251306361</v>
+        <v>0.3429516191740187</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>128</v>
@@ -6761,19 +6761,19 @@
         <v>135714</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>117992</v>
+        <v>116454</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>158309</v>
+        <v>158590</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3140010117776325</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.272996626023625</v>
+        <v>0.2694399055062977</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.36627912220802</v>
+        <v>0.3669283021006623</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>15368</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8549</v>
+        <v>8397</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26832</v>
+        <v>24656</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0722775386088414</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0402102896156215</v>
+        <v>0.03949342594459326</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1261971955957443</v>
+        <v>0.1159637026727022</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -6811,19 +6811,19 @@
         <v>40232</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29500</v>
+        <v>29861</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51695</v>
+        <v>52017</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1832113163268353</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1343411145674645</v>
+        <v>0.1359841049059549</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2354156231629867</v>
+        <v>0.2368816112340404</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>52</v>
@@ -6832,19 +6832,19 @@
         <v>55599</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>43445</v>
+        <v>43080</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>74591</v>
+        <v>71867</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1286392917517653</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1005177160671704</v>
+        <v>0.09967407871584921</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1725809398663579</v>
+        <v>0.1662790161957232</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>45291</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>33539</v>
+        <v>34452</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>57382</v>
+        <v>58196</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2130143946844306</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.157742108574058</v>
+        <v>0.1620359941383228</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2698833390739323</v>
+        <v>0.2737104953280217</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>87</v>
@@ -6882,19 +6882,19 @@
         <v>91342</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>76653</v>
+        <v>76301</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>106259</v>
+        <v>104315</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4159657454529718</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3490739219221373</v>
+        <v>0.3474681887579983</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4838965319757132</v>
+        <v>0.4750406214645757</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>130</v>
@@ -6903,19 +6903,19 @@
         <v>136633</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>116803</v>
+        <v>117126</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>155699</v>
+        <v>156828</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.316127208178603</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.270245651632083</v>
+        <v>0.270992973023549</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3602410613337337</v>
+        <v>0.3628525527566116</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>114954</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>97883</v>
+        <v>97857</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>131157</v>
+        <v>131618</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4195688572231252</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3572608033437295</v>
+        <v>0.357166337941298</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4787069490018726</v>
+        <v>0.4803898640596523</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>52</v>
@@ -7028,19 +7028,19 @@
         <v>57675</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45048</v>
+        <v>45026</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>74432</v>
+        <v>74624</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2059607953256419</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1608688505002058</v>
+        <v>0.1607910235624428</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2658008155759727</v>
+        <v>0.266483656905308</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>163</v>
@@ -7049,19 +7049,19 @@
         <v>172629</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>150290</v>
+        <v>151964</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>194134</v>
+        <v>195673</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3115984908885525</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2712762978068124</v>
+        <v>0.2742968854520052</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3504144247627805</v>
+        <v>0.3531927140956854</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>62069</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>48015</v>
+        <v>48854</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>77122</v>
+        <v>76516</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2265457807894344</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1752506164574039</v>
+        <v>0.178312422048474</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2814881553039405</v>
+        <v>0.2792756651584955</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>44</v>
@@ -7099,19 +7099,19 @@
         <v>45987</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>34839</v>
+        <v>34426</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>59340</v>
+        <v>59876</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1642201002394633</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1244099901692728</v>
+        <v>0.1229358076897655</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.211904798793189</v>
+        <v>0.2138178051912345</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>103</v>
@@ -7120,19 +7120,19 @@
         <v>108056</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>90154</v>
+        <v>90019</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>131584</v>
+        <v>127933</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1950426319791543</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1627299974777059</v>
+        <v>0.1624859203861836</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2375105350882429</v>
+        <v>0.230920747849153</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>48685</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>35876</v>
+        <v>36324</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>61029</v>
+        <v>63446</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1776959266330806</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1309418410270342</v>
+        <v>0.1325781306922787</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2227484776778325</v>
+        <v>0.2315721826662004</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>70</v>
@@ -7170,19 +7170,19 @@
         <v>71546</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>58701</v>
+        <v>57758</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>88533</v>
+        <v>86636</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2554923949867292</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2096240921310389</v>
+        <v>0.2062572330534176</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3161534524419632</v>
+        <v>0.3093798741455731</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>116</v>
@@ -7191,19 +7191,19 @@
         <v>120231</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>101300</v>
+        <v>101678</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>140688</v>
+        <v>140709</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2170189424081626</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1828472878484557</v>
+        <v>0.1835310312604234</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2539432968616306</v>
+        <v>0.253981728636585</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>9662</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4957</v>
+        <v>4798</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16748</v>
+        <v>17302</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03526374103837793</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0180930202313956</v>
+        <v>0.01751106126595371</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06112912706456097</v>
+        <v>0.06315218049176145</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>29</v>
@@ -7241,19 +7241,19 @@
         <v>28962</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19718</v>
+        <v>19728</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39599</v>
+        <v>40082</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1034232396679356</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0704130103523511</v>
+        <v>0.07045057578688808</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1414093624267166</v>
+        <v>0.1431358580079808</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>39</v>
@@ -7262,19 +7262,19 @@
         <v>38623</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>28120</v>
+        <v>28648</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>52312</v>
+        <v>51804</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06971565250109252</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05075725706395364</v>
+        <v>0.05170953663384425</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09442352577821334</v>
+        <v>0.09350692366229771</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>38611</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>27518</v>
+        <v>28156</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>51529</v>
+        <v>51741</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1409256943159819</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1004387668844854</v>
+        <v>0.1027660128166369</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1880733041610923</v>
+        <v>0.1888497125301839</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>74</v>
@@ -7312,19 +7312,19 @@
         <v>75861</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>61315</v>
+        <v>62935</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>92301</v>
+        <v>91944</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.27090346978023</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2189575952234799</v>
+        <v>0.2247416447488966</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3296107381432398</v>
+        <v>0.3283365453200484</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>109</v>
@@ -7333,19 +7333,19 @@
         <v>114472</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>97048</v>
+        <v>96420</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>138457</v>
+        <v>132739</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2066242822230381</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1751724404785319</v>
+        <v>0.1740401422180785</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2499163875364694</v>
+        <v>0.2395960107544987</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>229577</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>203649</v>
+        <v>203112</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>254205</v>
+        <v>255970</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.346381033938357</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3072607894520368</v>
+        <v>0.3064516517508409</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3835392316982356</v>
+        <v>0.3862014180661201</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>137</v>
@@ -7458,19 +7458,19 @@
         <v>147562</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>125765</v>
+        <v>126424</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>170424</v>
+        <v>171772</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2135255323359191</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1819841729490248</v>
+        <v>0.1829371903190055</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2466071662471944</v>
+        <v>0.248557368120641</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>351</v>
@@ -7479,19 +7479,19 @@
         <v>377140</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>340400</v>
+        <v>344038</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>415477</v>
+        <v>412515</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2785653210746341</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2514283032629152</v>
+        <v>0.2541156063421146</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3068826710272471</v>
+        <v>0.3046948800575876</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>121755</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>100983</v>
+        <v>103294</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>144343</v>
+        <v>145167</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1837018167488937</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1523610606577868</v>
+        <v>0.1558473730462299</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2177813103361156</v>
+        <v>0.2190251736189054</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>94</v>
@@ -7529,19 +7529,19 @@
         <v>102863</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>84166</v>
+        <v>82528</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>122674</v>
+        <v>122381</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1488440763646222</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1217903761124627</v>
+        <v>0.1194202749366284</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1775111291324874</v>
+        <v>0.1770881088013137</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>206</v>
@@ -7550,19 +7550,19 @@
         <v>224618</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>198342</v>
+        <v>197755</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>255053</v>
+        <v>253923</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.165908782328296</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.146500326321405</v>
+        <v>0.1460668143817152</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1883888085595966</v>
+        <v>0.1875539515941436</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>133285</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>112624</v>
+        <v>112889</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>154688</v>
+        <v>155153</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2010980870945826</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1699249063952311</v>
+        <v>0.1703251289837334</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2333899508522948</v>
+        <v>0.2340907321318926</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>148</v>
@@ -7600,19 +7600,19 @@
         <v>160895</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>138739</v>
+        <v>139694</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>184696</v>
+        <v>185665</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2328188075238193</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2007577593633768</v>
+        <v>0.2021399123893042</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2672586244991482</v>
+        <v>0.2686601986178679</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>275</v>
@@ -7621,19 +7621,19 @@
         <v>294181</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>264194</v>
+        <v>266062</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>327500</v>
+        <v>327308</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2172898386029001</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1951406929333953</v>
+        <v>0.1965208267312979</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2419004721706623</v>
+        <v>0.2417582238773137</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>50789</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>37018</v>
+        <v>36956</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>67344</v>
+        <v>67785</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07662970324165684</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05585222580383634</v>
+        <v>0.05575784262084735</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1016077737360441</v>
+        <v>0.1022725224362423</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>58</v>
@@ -7671,19 +7671,19 @@
         <v>61572</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>47108</v>
+        <v>47581</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>78195</v>
+        <v>79086</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08909542744450315</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06816568691501966</v>
+        <v>0.06885053254186589</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1131489691091335</v>
+        <v>0.1144384673155809</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>105</v>
@@ -7692,19 +7692,19 @@
         <v>112361</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>92409</v>
+        <v>92613</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>135327</v>
+        <v>132839</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08299279670020485</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06825558007709306</v>
+        <v>0.06840643673532228</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09995594227502959</v>
+        <v>0.09811834156052736</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>127381</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>106448</v>
+        <v>107473</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>150228</v>
+        <v>150305</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1921893589765098</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1606057245204451</v>
+        <v>0.1621530517989655</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.22666036703004</v>
+        <v>0.2267767104524479</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>197</v>
@@ -7742,19 +7742,19 @@
         <v>218184</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>193538</v>
+        <v>192512</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>243299</v>
+        <v>246546</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3157161563311362</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2800537066661379</v>
+        <v>0.2785691411464117</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.352058868315859</v>
+        <v>0.3567562143171228</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>315</v>
@@ -7763,19 +7763,19 @@
         <v>345565</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>311924</v>
+        <v>312253</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>380446</v>
+        <v>379635</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.255243261293965</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2303953563951773</v>
+        <v>0.2306386618810815</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2810076719550379</v>
+        <v>0.2804084039830305</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>144669</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>122549</v>
+        <v>120047</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>168494</v>
+        <v>168021</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1861723253952407</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1577063466319411</v>
+        <v>0.1544871351999994</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.216833382610669</v>
+        <v>0.2162239451865754</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>112</v>
@@ -7888,19 +7888,19 @@
         <v>122562</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>102777</v>
+        <v>101128</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>145291</v>
+        <v>145596</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1497249265757853</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.125554658234449</v>
+        <v>0.1235404957799658</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1774906913300452</v>
+        <v>0.17786349317981</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>244</v>
@@ -7909,19 +7909,19 @@
         <v>267231</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>236806</v>
+        <v>239074</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>298791</v>
+        <v>300227</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1674745279282113</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.148407151524042</v>
+        <v>0.1498283665112773</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.187253392634684</v>
+        <v>0.1881535441110967</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>172239</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>150162</v>
+        <v>146977</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>197767</v>
+        <v>194660</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2216526744984089</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1932411788390246</v>
+        <v>0.1891427972237297</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2545031693170808</v>
+        <v>0.2505050199216757</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>113</v>
@@ -7959,19 +7959,19 @@
         <v>122343</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>104594</v>
+        <v>103465</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>145388</v>
+        <v>144961</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1494579105129395</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1277742966883049</v>
+        <v>0.1263957828079626</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1776098989331036</v>
+        <v>0.1770881733871431</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>273</v>
@@ -7980,19 +7980,19 @@
         <v>294583</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>262053</v>
+        <v>260851</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>326142</v>
+        <v>324293</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1846162022424044</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1642294519032971</v>
+        <v>0.1634760311708673</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.204394404141248</v>
+        <v>0.2032355812797802</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>176780</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>151820</v>
+        <v>151605</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>202251</v>
+        <v>200228</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2274962995086033</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1953755719088098</v>
+        <v>0.195098184472788</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.260274721107019</v>
+        <v>0.2576704715373423</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>146</v>
@@ -8030,19 +8030,19 @@
         <v>157173</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>131964</v>
+        <v>135219</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>178858</v>
+        <v>180308</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1920071770202468</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1612105424531233</v>
+        <v>0.165187675968809</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2184974898156192</v>
+        <v>0.220268725246157</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>305</v>
@@ -8051,19 +8051,19 @@
         <v>333954</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>302592</v>
+        <v>299863</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>368032</v>
+        <v>370843</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2092901052104336</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1896354335162985</v>
+        <v>0.1879250768080916</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.230646791450271</v>
+        <v>0.2324088431050822</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>44717</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>33303</v>
+        <v>34318</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>59970</v>
+        <v>60478</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05754628053864441</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04285692376449809</v>
+        <v>0.04416365002912077</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.07717473755585123</v>
+        <v>0.07782807491417161</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>84</v>
@@ -8101,19 +8101,19 @@
         <v>89779</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>73099</v>
+        <v>72676</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>111161</v>
+        <v>109648</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1096763837202222</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08929993341685535</v>
+        <v>0.08878323908343198</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1357967262904819</v>
+        <v>0.1339488306068053</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>127</v>
@@ -8122,19 +8122,19 @@
         <v>134496</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>113488</v>
+        <v>114219</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>158133</v>
+        <v>156615</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.08428942662851531</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.07112325012918981</v>
+        <v>0.07158124379098332</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09910259478664853</v>
+        <v>0.09815148232799446</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>238663</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>214410</v>
+        <v>214215</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>267645</v>
+        <v>265648</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3071324200591027</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2759210700249165</v>
+        <v>0.2756709798874517</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3444289070685611</v>
+        <v>0.3418588918341371</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>298</v>
@@ -8172,19 +8172,19 @@
         <v>326723</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>300179</v>
+        <v>299061</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>356204</v>
+        <v>358566</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3991336021708062</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3667063635233841</v>
+        <v>0.3653405249896393</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4351477618982099</v>
+        <v>0.4380339580010395</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>519</v>
@@ -8193,19 +8193,19 @@
         <v>565386</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>527476</v>
+        <v>526671</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>608272</v>
+        <v>602765</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3543297379904354</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3305715040628919</v>
+        <v>0.3300670442512055</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3812062054462391</v>
+        <v>0.3777550657567696</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>855634</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>800254</v>
+        <v>808704</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>909854</v>
+        <v>909309</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2501911198167888</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2339975651026746</v>
+        <v>0.2364685459052599</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2660452562730428</v>
+        <v>0.2658858015365512</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>503</v>
@@ -8318,19 +8318,19 @@
         <v>549547</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>507585</v>
+        <v>507188</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>595288</v>
+        <v>597941</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.155012435775971</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1431759605945417</v>
+        <v>0.1430640963252769</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1679146166397383</v>
+        <v>0.1686629144520629</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1300</v>
@@ -8339,19 +8339,19 @@
         <v>1405181</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1332988</v>
+        <v>1336549</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1469184</v>
+        <v>1473598</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2017459465399589</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1913809760649591</v>
+        <v>0.1918922350314623</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2109349465312313</v>
+        <v>0.2115687318071574</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>662445</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>615293</v>
+        <v>618419</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>710495</v>
+        <v>711175</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1937017938059829</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1799143110449164</v>
+        <v>0.1808281974339642</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2077518070363853</v>
+        <v>0.2079505886827235</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>483</v>
@@ -8389,19 +8389,19 @@
         <v>522010</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>480628</v>
+        <v>482675</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>566141</v>
+        <v>568768</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1472450325364557</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1355722602085737</v>
+        <v>0.1361496419231836</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1596929982791394</v>
+        <v>0.1604341789267935</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1100</v>
@@ -8410,19 +8410,19 @@
         <v>1184455</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1119555</v>
+        <v>1124375</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1255650</v>
+        <v>1251058</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1700556815250295</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.160737692185537</v>
+        <v>0.1614297434325431</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1802772355798137</v>
+        <v>0.179618020217283</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>687302</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>638670</v>
+        <v>639122</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>733435</v>
+        <v>735943</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2009699741984774</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1867499219090528</v>
+        <v>0.1868819232913926</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.214459466161032</v>
+        <v>0.21519285069141</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>647</v>
@@ -8460,19 +8460,19 @@
         <v>686273</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>640106</v>
+        <v>637696</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>737173</v>
+        <v>731184</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1935789931817795</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.180556688827794</v>
+        <v>0.1798768505519613</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2079365756771421</v>
+        <v>0.2062473395211575</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1297</v>
@@ -8481,19 +8481,19 @@
         <v>1373574</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1310266</v>
+        <v>1298204</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1444050</v>
+        <v>1438015</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1972080251901665</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1881186950875137</v>
+        <v>0.1863869680110285</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2073265039784023</v>
+        <v>0.2064600084447972</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>181176</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>156420</v>
+        <v>155366</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>210377</v>
+        <v>208207</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.0529767178687089</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.04573780334907768</v>
+        <v>0.04542963668706402</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.06151504238321822</v>
+        <v>0.06088069026879418</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>309</v>
@@ -8531,19 +8531,19 @@
         <v>329579</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>296049</v>
+        <v>295472</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>369929</v>
+        <v>369307</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.09296544308499767</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.08350743419395885</v>
+        <v>0.08334477159954316</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1043470152254813</v>
+        <v>0.1041715934027806</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>481</v>
@@ -8552,19 +8552,19 @@
         <v>510756</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>467997</v>
+        <v>466888</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>557805</v>
+        <v>555354</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.07333065259417582</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.06719171120183989</v>
+        <v>0.06703243060808411</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.08008570337502073</v>
+        <v>0.07973383571533418</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>1033365</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>974973</v>
+        <v>981079</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1084044</v>
+        <v>1092503</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.302160394310042</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2850861355002944</v>
+        <v>0.2868715196486285</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3169789844705032</v>
+        <v>0.3194524057501177</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1345</v>
@@ -8602,19 +8602,19 @@
         <v>1457772</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1391560</v>
+        <v>1395187</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1515850</v>
+        <v>1519270</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4111980954207962</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3925216874248051</v>
+        <v>0.3935445628284944</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4275804726706681</v>
+        <v>0.4285451951057763</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2311</v>
@@ -8623,19 +8623,19 @@
         <v>2491137</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2413636</v>
+        <v>2412151</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2570015</v>
+        <v>2571434</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3576596941506693</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.346532674490007</v>
+        <v>0.3463194347464467</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3689844715119557</v>
+        <v>0.3691882029427527</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>98184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80161</v>
+        <v>82728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115332</v>
+        <v>116482</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3353466426691257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2737889774898354</v>
+        <v>0.28255514066701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3939133962203297</v>
+        <v>0.3978410945239706</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -8992,19 +8992,19 @@
         <v>94289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78511</v>
+        <v>78513</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111973</v>
+        <v>112583</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3277617296023376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2729142662140985</v>
+        <v>0.2729211181223588</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3892324632032017</v>
+        <v>0.3913517387060959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -9013,19 +9013,19 @@
         <v>192473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168973</v>
+        <v>171724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>216866</v>
+        <v>216470</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3315875545470572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2911018156553182</v>
+        <v>0.2958409093303447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.373609851888682</v>
+        <v>0.3729291893556899</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>40741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29596</v>
+        <v>29120</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53396</v>
+        <v>55717</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1391496963677537</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1010849597298311</v>
+        <v>0.09945861486302755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1823722391691487</v>
+        <v>0.1903013924948958</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -9063,19 +9063,19 @@
         <v>27241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18013</v>
+        <v>18022</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38742</v>
+        <v>38453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09469469412654004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06261515491295067</v>
+        <v>0.06264840502494017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1346713702539659</v>
+        <v>0.1336685843124884</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -9084,19 +9084,19 @@
         <v>67982</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54014</v>
+        <v>54241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84508</v>
+        <v>85916</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1171177667437747</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09305449336817039</v>
+        <v>0.09344523842540174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.145588716434858</v>
+        <v>0.1480136849894908</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>44014</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33110</v>
+        <v>31799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59420</v>
+        <v>58143</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1503301414726439</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1130860987503679</v>
+        <v>0.1086104732218251</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2029474136350901</v>
+        <v>0.1985868055660678</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -9134,19 +9134,19 @@
         <v>38016</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27127</v>
+        <v>27383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49459</v>
+        <v>51519</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1321497504285325</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09429714167590229</v>
+        <v>0.09518534803520125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1719257909467061</v>
+        <v>0.1790869009541036</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -9155,19 +9155,19 @@
         <v>82031</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64507</v>
+        <v>66098</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>100894</v>
+        <v>101505</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.14131992719244</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1111305475781893</v>
+        <v>0.1138715402624709</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1738172782160811</v>
+        <v>0.1748693191563408</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>20736</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12769</v>
+        <v>12661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29972</v>
+        <v>30983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07082276071746674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04361081354147582</v>
+        <v>0.04324432983814667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1023684590979825</v>
+        <v>0.1058226828148884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -9205,19 +9205,19 @@
         <v>21891</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14252</v>
+        <v>14331</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33521</v>
+        <v>32925</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0760974871416325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04954301953747509</v>
+        <v>0.04981677246162622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1165243487889159</v>
+        <v>0.1144504220600814</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -9226,19 +9226,19 @@
         <v>42627</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30956</v>
+        <v>30844</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56454</v>
+        <v>56136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07343691875377481</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05332942322210323</v>
+        <v>0.05313760794089707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09725664369759437</v>
+        <v>0.09670986635321337</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>89109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74344</v>
+        <v>73059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108065</v>
+        <v>105546</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.30435075877301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2539201039715037</v>
+        <v>0.2495324044821116</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3690952712561916</v>
+        <v>0.360491395906324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>106</v>
@@ -9276,19 +9276,19 @@
         <v>106238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88612</v>
+        <v>88533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>123071</v>
+        <v>121734</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3692963387009573</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3080284447287294</v>
+        <v>0.3077530099874031</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.427812122912807</v>
+        <v>0.4231649541645764</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>185</v>
@@ -9297,19 +9297,19 @@
         <v>195347</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>174372</v>
+        <v>172999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>220641</v>
+        <v>217297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3365378327629532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3004036661814534</v>
+        <v>0.2980375294485712</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3801132376677112</v>
+        <v>0.3743528650484697</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>69476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55080</v>
+        <v>56388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87055</v>
+        <v>87249</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1385304619778203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1098255728541499</v>
+        <v>0.1124333821814925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1735820963781949</v>
+        <v>0.1739693227790763</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -9422,19 +9422,19 @@
         <v>43260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31105</v>
+        <v>31837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58660</v>
+        <v>59177</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08288280764170428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05959536197827711</v>
+        <v>0.06099795943194967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1123873831466787</v>
+        <v>0.1133789291624391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -9443,19 +9443,19 @@
         <v>112736</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92150</v>
+        <v>92492</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134823</v>
+        <v>133780</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1101514608228881</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09003762380864523</v>
+        <v>0.09037163535587787</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1317324796203833</v>
+        <v>0.1307126678736102</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>170975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149965</v>
+        <v>149514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194018</v>
+        <v>194729</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3409125879721092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2990210474193641</v>
+        <v>0.2981220421020195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3868598288646051</v>
+        <v>0.3882767478481057</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -9493,19 +9493,19 @@
         <v>138785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118510</v>
+        <v>116905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160486</v>
+        <v>158195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.265901388876725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2270551160766991</v>
+        <v>0.2239810199410973</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3074789727154116</v>
+        <v>0.3030890646206301</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>290</v>
@@ -9514,19 +9514,19 @@
         <v>309760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>278267</v>
+        <v>279441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>338665</v>
+        <v>341482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.302658632236563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2718879838416143</v>
+        <v>0.2730350728448432</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3309015023653372</v>
+        <v>0.3336532898059865</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>133931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114559</v>
+        <v>114371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>154634</v>
+        <v>155503</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2670498094203884</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2284235627663212</v>
+        <v>0.2280483929565106</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3083308887213614</v>
+        <v>0.3100629005328547</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -9564,19 +9564,19 @@
         <v>159187</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>138173</v>
+        <v>139706</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>183165</v>
+        <v>182761</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3049904815770598</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2647283806411855</v>
+        <v>0.2676659236677824</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3509297005826418</v>
+        <v>0.3501558167870273</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>277</v>
@@ -9585,19 +9585,19 @@
         <v>293118</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>265327</v>
+        <v>264240</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>325707</v>
+        <v>323442</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2863986641349038</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2592444070026752</v>
+        <v>0.2581819086010012</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.318240585064966</v>
+        <v>0.3160270450825499</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>3402</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9570</v>
+        <v>11815</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006782902569183055</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002015632833801354</v>
+        <v>0.002009531829884258</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01908110249699932</v>
+        <v>0.02355795843370501</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -9635,19 +9635,19 @@
         <v>11505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6058</v>
+        <v>6242</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21050</v>
+        <v>20047</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02204309537554569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01160746654934888</v>
+        <v>0.01195944550234095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0403294557469242</v>
+        <v>0.03840915563646452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -9656,19 +9656,19 @@
         <v>14907</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8793</v>
+        <v>8517</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24789</v>
+        <v>23863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01456524370184758</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00859180788111228</v>
+        <v>0.008321291675276794</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02422117927855737</v>
+        <v>0.02331583046510555</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>123737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103479</v>
+        <v>105986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144039</v>
+        <v>146463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2467242380604991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2063303604098685</v>
+        <v>0.2113300382260892</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2872042918871719</v>
+        <v>0.2920367164286454</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -9706,19 +9706,19 @@
         <v>169204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>146877</v>
+        <v>148926</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191551</v>
+        <v>192658</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3241822265289652</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2814056258011649</v>
+        <v>0.2853306812206439</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3669965667273142</v>
+        <v>0.3691173890381009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>271</v>
@@ -9727,19 +9727,19 @@
         <v>292942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>264999</v>
+        <v>264161</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>323053</v>
+        <v>324651</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2862259991037975</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2589238139903961</v>
+        <v>0.258105480896344</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3156472467413795</v>
+        <v>0.3172087725984843</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>7549</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3236</v>
+        <v>3449</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16820</v>
+        <v>15858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02376981716276192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01019031512518382</v>
+        <v>0.0108585379725086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05296076377841869</v>
+        <v>0.04993168488106319</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -9852,19 +9852,19 @@
         <v>6358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2716</v>
+        <v>2676</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14108</v>
+        <v>13539</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01890582548677043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008074696349810184</v>
+        <v>0.007956767188000903</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04195079587685028</v>
+        <v>0.04025713187505975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -9873,19 +9873,19 @@
         <v>13908</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7942</v>
+        <v>7866</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24065</v>
+        <v>24172</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02126824506437888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0121456160501943</v>
+        <v>0.01202940464771691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03680155933029579</v>
+        <v>0.03696607508738797</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>65375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52073</v>
+        <v>53201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79533</v>
+        <v>79589</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2058402469831384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1639585733297552</v>
+        <v>0.1675079032630566</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2504167034061152</v>
+        <v>0.2505938250904394</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -9923,19 +9923,19 @@
         <v>83661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68111</v>
+        <v>68850</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101021</v>
+        <v>102278</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2487635240771993</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2025241308056815</v>
+        <v>0.2047233982778681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.300381114363985</v>
+        <v>0.304119314281254</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>149</v>
@@ -9944,19 +9944,19 @@
         <v>149036</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125530</v>
+        <v>127218</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>170011</v>
+        <v>170285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2279158752946895</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1919689967350542</v>
+        <v>0.1945504121599999</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2599919289131993</v>
+        <v>0.260409747398018</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>113103</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96476</v>
+        <v>97704</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>129749</v>
+        <v>130803</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3561156472902782</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3037632849284982</v>
+        <v>0.3076327705892798</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4085271686882131</v>
+        <v>0.4118480521561089</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -9994,19 +9994,19 @@
         <v>103521</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>87868</v>
+        <v>84602</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>121808</v>
+        <v>121308</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3078156298764716</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2612722521568477</v>
+        <v>0.2515597619641977</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3621901379141528</v>
+        <v>0.3607050154986802</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>219</v>
@@ -10015,19 +10015,19 @@
         <v>216624</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>191426</v>
+        <v>194999</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>240380</v>
+        <v>241653</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3312747380201849</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2927401029893044</v>
+        <v>0.2982048712373098</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3676038210602764</v>
+        <v>0.3695502153149028</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>53884</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40723</v>
+        <v>42221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67252</v>
+        <v>67936</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1696587311792969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1282204983261123</v>
+        <v>0.1329361649497775</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2117493831825729</v>
+        <v>0.2139035541886506</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -10065,19 +10065,19 @@
         <v>55577</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42028</v>
+        <v>43243</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70057</v>
+        <v>70935</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1652555590382392</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1249674519520918</v>
+        <v>0.1285819391301845</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.208310709490911</v>
+        <v>0.2109209878024411</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>114</v>
@@ -10086,19 +10086,19 @@
         <v>109461</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92949</v>
+        <v>92601</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130884</v>
+        <v>128757</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1673941605742902</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1421427541315277</v>
+        <v>0.1416110746668987</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2001566611435809</v>
+        <v>0.1969028443225615</v>
       </c>
     </row>
     <row r="20">
@@ -10115,19 +10115,19 @@
         <v>77690</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62935</v>
+        <v>64071</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92054</v>
+        <v>93041</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2446155573845246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1981588918528158</v>
+        <v>0.2017348503118717</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2898418980638424</v>
+        <v>0.2929497677602048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -10136,19 +10136,19 @@
         <v>87191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72305</v>
+        <v>70360</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103863</v>
+        <v>103284</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2592594615213194</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2149956556555157</v>
+        <v>0.2092131692787604</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.308831662757539</v>
+        <v>0.3071094548286205</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>171</v>
@@ -10157,19 +10157,19 @@
         <v>164881</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>144914</v>
+        <v>143204</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>188036</v>
+        <v>189503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2521469810464564</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2216122769964601</v>
+        <v>0.2189967109338118</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2875567323911515</v>
+        <v>0.2898001539910349</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>185343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>165594</v>
+        <v>167729</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>207337</v>
+        <v>205489</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5022863876631344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4487663186028277</v>
+        <v>0.4545517391219265</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5618907360355525</v>
+        <v>0.5568830007030193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>126</v>
@@ -10282,19 +10282,19 @@
         <v>135272</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114955</v>
+        <v>115873</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>152851</v>
+        <v>155661</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3492838304188241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2968248936565824</v>
+        <v>0.2991957687075587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3946740193591412</v>
+        <v>0.4019308216266154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>304</v>
@@ -10303,19 +10303,19 @@
         <v>320614</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>290580</v>
+        <v>293223</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>346049</v>
+        <v>350164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4239354924285593</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3842219023455326</v>
+        <v>0.3877171546581862</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4575668820295022</v>
+        <v>0.4630076409263575</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>40858</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28960</v>
+        <v>29792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54615</v>
+        <v>53641</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1107262831045212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07848334928238453</v>
+        <v>0.08073726650381846</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1480080651080466</v>
+        <v>0.1453706489582983</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -10353,19 +10353,19 @@
         <v>22430</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14524</v>
+        <v>13822</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34214</v>
+        <v>33197</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05791639873734956</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03750163857832985</v>
+        <v>0.03568969625378526</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08834460634750703</v>
+        <v>0.08571802275366813</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>60</v>
@@ -10374,19 +10374,19 @@
         <v>63288</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48368</v>
+        <v>47749</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>81289</v>
+        <v>78882</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08368293303295786</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06395539986023006</v>
+        <v>0.06313599158329504</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1074847979531979</v>
+        <v>0.104302439500384</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>32375</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23039</v>
+        <v>23358</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46274</v>
+        <v>44719</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08773693899818454</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06243706922910511</v>
+        <v>0.06330166655778727</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1254054197167049</v>
+        <v>0.1211893911191497</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -10424,19 +10424,19 @@
         <v>41823</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30506</v>
+        <v>29595</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56060</v>
+        <v>56004</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1079914130624669</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07876985532952191</v>
+        <v>0.07641719363897297</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1447511314829436</v>
+        <v>0.1446073147592379</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -10445,19 +10445,19 @@
         <v>74198</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57777</v>
+        <v>57999</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89484</v>
+        <v>92392</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09810902822351687</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07639667322799859</v>
+        <v>0.07668946084219368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.118320594488638</v>
+        <v>0.122166730249121</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>28135</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17662</v>
+        <v>19041</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40586</v>
+        <v>38976</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0762475021033394</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04786400981118639</v>
+        <v>0.05160213591642296</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1099908224586763</v>
+        <v>0.1056258948706786</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -10495,19 +10495,19 @@
         <v>26350</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17356</v>
+        <v>17528</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38380</v>
+        <v>37640</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06803925008272908</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04481561956807487</v>
+        <v>0.04525847389297837</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09910106500403702</v>
+        <v>0.09719038619597842</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>53</v>
@@ -10516,19 +10516,19 @@
         <v>54486</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41777</v>
+        <v>41335</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>71193</v>
+        <v>70479</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07204414821364652</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05523954173332046</v>
+        <v>0.05465529886937807</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09413505678946914</v>
+        <v>0.0931921657759819</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>82288</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66940</v>
+        <v>67399</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100467</v>
+        <v>99855</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2230028881308205</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1814099812219851</v>
+        <v>0.1826548549321406</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2722701547222485</v>
+        <v>0.2706124010558032</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>147</v>
@@ -10566,19 +10566,19 @@
         <v>161408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>141020</v>
+        <v>141743</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>179385</v>
+        <v>182833</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4167691076986303</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.364126262552612</v>
+        <v>0.3659921756176193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4631883317580747</v>
+        <v>0.4720914704431654</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>224</v>
@@ -10587,19 +10587,19 @@
         <v>243695</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>218572</v>
+        <v>219332</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>271017</v>
+        <v>271548</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3222283981013194</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2890091166595168</v>
+        <v>0.2900139367243217</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3583544539628861</v>
+        <v>0.3590574207630604</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>27978</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19644</v>
+        <v>19536</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38561</v>
+        <v>39433</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1331294036548227</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09347333952956194</v>
+        <v>0.09296057907363002</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1834902620006904</v>
+        <v>0.1876388658667673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -10712,19 +10712,19 @@
         <v>25358</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17042</v>
+        <v>17104</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36099</v>
+        <v>35404</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1165333347713573</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07831356668401232</v>
+        <v>0.07860119690624517</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1658926548486703</v>
+        <v>0.162696843277374</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>55</v>
@@ -10733,19 +10733,19 @@
         <v>53336</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>41577</v>
+        <v>40640</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>68051</v>
+        <v>66986</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1246868262277014</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0971965484944415</v>
+        <v>0.09500701038504095</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1590869862046084</v>
+        <v>0.1565960858431023</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>90387</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75582</v>
+        <v>76593</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104008</v>
+        <v>105132</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4300948557573163</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3596473476294832</v>
+        <v>0.3644618619792589</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4949100100691491</v>
+        <v>0.5002591077088657</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -10783,19 +10783,19 @@
         <v>81954</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>66812</v>
+        <v>69073</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>95830</v>
+        <v>97121</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3766148136143714</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3070308814940601</v>
+        <v>0.3174202546936384</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4403842280816836</v>
+        <v>0.4463159748332511</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>174</v>
@@ -10804,19 +10804,19 @@
         <v>172341</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>149397</v>
+        <v>152289</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>190586</v>
+        <v>190359</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4028890517944658</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3492516754835284</v>
+        <v>0.3560129393636289</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4455414397398973</v>
+        <v>0.445012322717309</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>33984</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24965</v>
+        <v>24120</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>46483</v>
+        <v>44000</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1617069925643734</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1187928826021525</v>
+        <v>0.114771100082844</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.221186521168437</v>
+        <v>0.209367806112468</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -10854,19 +10854,19 @@
         <v>43574</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32160</v>
+        <v>31867</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55615</v>
+        <v>55461</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2002405075506831</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1477915701202615</v>
+        <v>0.1464423359591709</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2555787015473886</v>
+        <v>0.2548707471434893</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>80</v>
@@ -10875,19 +10875,19 @@
         <v>77557</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>64147</v>
+        <v>63229</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>96044</v>
+        <v>92774</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1813093565998213</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1499604253114111</v>
+        <v>0.1478141648979312</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2245269681802578</v>
+        <v>0.2168826589522767</v>
       </c>
     </row>
     <row r="31">
@@ -10904,19 +10904,19 @@
         <v>8203</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3738</v>
+        <v>3761</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14102</v>
+        <v>14579</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03903287145335046</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01778561398562829</v>
+        <v>0.01789403246534542</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06710371248995116</v>
+        <v>0.06937441818174298</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -10925,19 +10925,19 @@
         <v>9276</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4252</v>
+        <v>4564</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16840</v>
+        <v>16977</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04262828792805182</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0195383529344033</v>
+        <v>0.02097237942187097</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07738745381028746</v>
+        <v>0.07801516688451891</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>18</v>
@@ -10946,19 +10946,19 @@
         <v>17479</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10690</v>
+        <v>10593</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>27367</v>
+        <v>27909</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04086189386724606</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02498951228085608</v>
+        <v>0.0247638538078886</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06397749747455844</v>
+        <v>0.06524460435993992</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>49604</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38022</v>
+        <v>38530</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62104</v>
+        <v>63088</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2360358765701372</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1809231787600282</v>
+        <v>0.1833401114554446</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2955138590111344</v>
+        <v>0.300198951626106</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>56</v>
@@ -10996,19 +10996,19 @@
         <v>57444</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44775</v>
+        <v>45274</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>70550</v>
+        <v>71836</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2639830561355364</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2057625125933323</v>
+        <v>0.2080526628760647</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3242077254911879</v>
+        <v>0.3301192159206182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>106</v>
@@ -11017,19 +11017,19 @@
         <v>107049</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90236</v>
+        <v>89021</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>126314</v>
+        <v>125652</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2502528715107654</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2109486399014021</v>
+        <v>0.2081080308473102</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2952911330926454</v>
+        <v>0.2937439310505129</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>43580</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31467</v>
+        <v>32807</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>56632</v>
+        <v>56048</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1668290341617281</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1204608003633047</v>
+        <v>0.1255873466156847</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2167937063642643</v>
+        <v>0.2145599516157805</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -11142,19 +11142,19 @@
         <v>29213</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>20266</v>
+        <v>20296</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>41050</v>
+        <v>40482</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1077846968425636</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07477610855331075</v>
+        <v>0.07488667035803806</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1514625443316171</v>
+        <v>0.149363899724033</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>72</v>
@@ -11163,19 +11163,19 @@
         <v>72792</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>58380</v>
+        <v>59140</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>90380</v>
+        <v>88854</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1367632046252252</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1096857290523334</v>
+        <v>0.1111135597373424</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1698065241512232</v>
+        <v>0.1669390908214565</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>69943</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>56551</v>
+        <v>56397</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>85860</v>
+        <v>84769</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.267748308636561</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2164838159393398</v>
+        <v>0.2158930522218256</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3286818313025636</v>
+        <v>0.3245043376504989</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>76</v>
@@ -11213,19 +11213,19 @@
         <v>76137</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>62217</v>
+        <v>62763</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>92343</v>
+        <v>91005</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2809189647598146</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.229561953590194</v>
+        <v>0.2315730456184995</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.340714886111958</v>
+        <v>0.3357774691740185</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>145</v>
@@ -11234,19 +11234,19 @@
         <v>146079</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>127053</v>
+        <v>125649</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>167305</v>
+        <v>169314</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2744549077765451</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2387088263510203</v>
+        <v>0.2360713380869714</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3143348907778299</v>
+        <v>0.3181083589733982</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>80986</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>66852</v>
+        <v>66456</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>96596</v>
+        <v>97721</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3100249710927594</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2559170379564892</v>
+        <v>0.2544013892860164</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3697807138515316</v>
+        <v>0.374087024987185</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>69</v>
@@ -11284,19 +11284,19 @@
         <v>70439</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>55634</v>
+        <v>57397</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>84874</v>
+        <v>85867</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2598963132700448</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2052713680016183</v>
+        <v>0.2117762608282149</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3131568563922587</v>
+        <v>0.3168213294946341</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>148</v>
@@ -11305,19 +11305,19 @@
         <v>151425</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>131390</v>
+        <v>131431</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>174302</v>
+        <v>172529</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2844990739547416</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2468559340515201</v>
+        <v>0.2469335115499306</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3274806815257178</v>
+        <v>0.3241487155493462</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>9947</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4620</v>
+        <v>4586</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19168</v>
+        <v>18547</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03807921805810058</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01768414726318132</v>
+        <v>0.01755432604687791</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07337627636445143</v>
+        <v>0.07100009460017037</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -11355,19 +11355,19 @@
         <v>14425</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8259</v>
+        <v>8795</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>22117</v>
+        <v>22889</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05322448181685693</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03047432964513165</v>
+        <v>0.03244951111267316</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08160589326102119</v>
+        <v>0.0844514344349368</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>24</v>
@@ -11376,19 +11376,19 @@
         <v>24373</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15183</v>
+        <v>16549</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>35723</v>
+        <v>37572</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04579130255478518</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02852554350349997</v>
+        <v>0.03109250414346476</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0671159044746568</v>
+        <v>0.07059100815971749</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>56769</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44635</v>
+        <v>44604</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>70438</v>
+        <v>70816</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2173184680508509</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1708678087012273</v>
+        <v>0.1707502362732561</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2696452164068175</v>
+        <v>0.2710931177184577</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>71</v>
@@ -11426,19 +11426,19 @@
         <v>80814</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>65558</v>
+        <v>64599</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>96803</v>
+        <v>95995</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2981755433107201</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2418867600034076</v>
+        <v>0.2383501601267377</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3571716221009244</v>
+        <v>0.3541879646248596</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>129</v>
@@ -11447,19 +11447,19 @@
         <v>137583</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>118341</v>
+        <v>118080</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>158887</v>
+        <v>159913</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.258491511088703</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2223401332720945</v>
+        <v>0.2218500413313116</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.298517894227268</v>
+        <v>0.3004455722319858</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>48512</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>34918</v>
+        <v>36289</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>62393</v>
+        <v>63077</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07462090383284929</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05371106954534539</v>
+        <v>0.05581986714635085</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09597317134000935</v>
+        <v>0.09702592096150786</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>46</v>
@@ -11572,19 +11572,19 @@
         <v>52571</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38773</v>
+        <v>40082</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>69891</v>
+        <v>69147</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07658596149717298</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05648390154202396</v>
+        <v>0.05839169049808167</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.101817248255184</v>
+        <v>0.1007330133195347</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>91</v>
@@ -11593,19 +11593,19 @@
         <v>101083</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>82578</v>
+        <v>81900</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>121800</v>
+        <v>122306</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07563013923815715</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0617848569630921</v>
+        <v>0.06127733746708783</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09113085506097811</v>
+        <v>0.09150904804840035</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>178526</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>154689</v>
+        <v>154693</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>207593</v>
+        <v>201585</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2746093781785086</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2379437327429018</v>
+        <v>0.2379495059493784</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3193202601411586</v>
+        <v>0.3100791523883459</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>190</v>
@@ -11643,19 +11643,19 @@
         <v>199041</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>177737</v>
+        <v>176170</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>225430</v>
+        <v>224936</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2899626676670237</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.258926476356609</v>
+        <v>0.2566447483270873</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3284061418187535</v>
+        <v>0.3276862442479821</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>342</v>
@@ -11664,19 +11664,19 @@
         <v>377567</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>344600</v>
+        <v>347193</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>411000</v>
+        <v>413690</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.282494685373849</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2578286164897663</v>
+        <v>0.2597692533099462</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3075089934129009</v>
+        <v>0.3095217980549178</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>179355</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>154015</v>
+        <v>155684</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>203156</v>
+        <v>204158</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2758847167482898</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2369069195364521</v>
+        <v>0.2394747600226769</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3124962766082309</v>
+        <v>0.3140371374516592</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>141</v>
@@ -11714,19 +11714,19 @@
         <v>146519</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>126252</v>
+        <v>126573</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>169268</v>
+        <v>168686</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2134480920884439</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1839235420589955</v>
+        <v>0.1843918794147343</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2465885696071859</v>
+        <v>0.2457420167825811</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>300</v>
@@ -11735,19 +11735,19 @@
         <v>325874</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>295384</v>
+        <v>292282</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>360029</v>
+        <v>358045</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2438178449517711</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2210055334517685</v>
+        <v>0.2186846856058495</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2693730176352336</v>
+        <v>0.267888522671573</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>57931</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>43382</v>
+        <v>41974</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>75329</v>
+        <v>73701</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.08911012880172214</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06673012514738269</v>
+        <v>0.06456542603728284</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1158707872755385</v>
+        <v>0.113367731552528</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>58</v>
@@ -11785,19 +11785,19 @@
         <v>61984</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>48274</v>
+        <v>47169</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>78148</v>
+        <v>78388</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09029840121327951</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07032555490470407</v>
+        <v>0.06871515144479196</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1138464789027106</v>
+        <v>0.1141960667089826</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>108</v>
@@ -11806,19 +11806,19 @@
         <v>119915</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>97435</v>
+        <v>100344</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>141612</v>
+        <v>141909</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08972041450003369</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07290039012765986</v>
+        <v>0.07507732218485555</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1059536592055579</v>
+        <v>0.1061762806532223</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>185785</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>161632</v>
+        <v>162264</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>213362</v>
+        <v>211075</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2857748724386301</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2486231167350648</v>
+        <v>0.2495960509897927</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3281946812472939</v>
+        <v>0.3246772474905282</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>207</v>
@@ -11856,19 +11856,19 @@
         <v>226322</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>199894</v>
+        <v>199915</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>250809</v>
+        <v>251815</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.32970487753408</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2912056930688137</v>
+        <v>0.2912359097920847</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3653785033276407</v>
+        <v>0.3668435976180477</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>375</v>
@@ -11877,19 +11877,19 @@
         <v>412106</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>380267</v>
+        <v>377388</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>448669</v>
+        <v>447881</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3083369159361891</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2845151069674038</v>
+        <v>0.2823606472126542</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3356931738458998</v>
+        <v>0.3351034257865157</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>84871</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>69389</v>
+        <v>68531</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>103079</v>
+        <v>103813</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1093052538437325</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08936635296503265</v>
+        <v>0.08826100286066063</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1327552399048417</v>
+        <v>0.1337011468718929</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>48</v>
@@ -12002,19 +12002,19 @@
         <v>54308</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>40131</v>
+        <v>40253</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>70169</v>
+        <v>71073</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06573502335850652</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04857436028933734</v>
+        <v>0.04872308333334897</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08493285373877899</v>
+        <v>0.08602733561644317</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>129</v>
@@ -12023,19 +12023,19 @@
         <v>139179</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>115330</v>
+        <v>115385</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>163469</v>
+        <v>163774</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08684441077903117</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07196319464428134</v>
+        <v>0.07199738630964181</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1020006292263825</v>
+        <v>0.1021911761716449</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>259142</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>230967</v>
+        <v>233798</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>286612</v>
+        <v>284986</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3337498035906322</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2974629458206036</v>
+        <v>0.3011085663267528</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3691274338233803</v>
+        <v>0.367033648535505</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>184</v>
@@ -12073,19 +12073,19 @@
         <v>198654</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>174723</v>
+        <v>172207</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>224179</v>
+        <v>223725</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2404521696961258</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.211485894362521</v>
+        <v>0.2084403904185398</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2713486187978825</v>
+        <v>0.2707989039354045</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>437</v>
@@ -12094,19 +12094,19 @@
         <v>457796</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>415766</v>
+        <v>422891</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>493763</v>
+        <v>494964</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2856540398116676</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2594282703800305</v>
+        <v>0.2638742547429042</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3080963173697828</v>
+        <v>0.308846017159902</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>175660</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>152323</v>
+        <v>154877</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>202142</v>
+        <v>201648</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2262325388425284</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1961773310839146</v>
+        <v>0.1994662159682715</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2603385384512292</v>
+        <v>0.2597024742938141</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>160</v>
@@ -12144,19 +12144,19 @@
         <v>167781</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>145101</v>
+        <v>145441</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>192700</v>
+        <v>192840</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2030835967564783</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1756317476189772</v>
+        <v>0.1760433482119567</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.233245487122296</v>
+        <v>0.2334153458143725</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>326</v>
@@ -12165,19 +12165,19 @@
         <v>343441</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>313273</v>
+        <v>310693</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>376590</v>
+        <v>380994</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.214299052388172</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1954752953106155</v>
+        <v>0.1938653908411044</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2349835013243338</v>
+        <v>0.237731521722788</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>73985</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>58190</v>
+        <v>58685</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>91949</v>
+        <v>91370</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.09528591176631095</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.07494280889591301</v>
+        <v>0.07557994171331653</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1184209585732722</v>
+        <v>0.1176760728910363</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>95</v>
@@ -12215,19 +12215,19 @@
         <v>102937</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>83133</v>
+        <v>85742</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>120975</v>
+        <v>125187</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1245958666331948</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1006247885853575</v>
+        <v>0.1037827263943674</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1464293370421425</v>
+        <v>0.1515270617371575</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>165</v>
@@ -12236,19 +12236,19 @@
         <v>176922</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>150263</v>
+        <v>148569</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>203796</v>
+        <v>200403</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1103954553507036</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09376057817031706</v>
+        <v>0.09270369557395347</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1271641016720992</v>
+        <v>0.1250465022393384</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>182799</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>159777</v>
+        <v>161118</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>204926</v>
+        <v>208428</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.235426491956796</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2057774072222407</v>
+        <v>0.2075035859744939</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2639246540646771</v>
+        <v>0.268434836098876</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>268</v>
@@ -12286,19 +12286,19 @@
         <v>302487</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>277020</v>
+        <v>271786</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>336480</v>
+        <v>332529</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3661333435556946</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3353073674049381</v>
+        <v>0.3289719708589823</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4072790010869679</v>
+        <v>0.4024964070030125</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>446</v>
@@ -12307,19 +12307,19 @@
         <v>485286</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>447476</v>
+        <v>446284</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>521332</v>
+        <v>523826</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3028070416704256</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2792144969706471</v>
+        <v>0.2784706044711664</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.32529908461178</v>
+        <v>0.3268549523357586</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>565492</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>521608</v>
+        <v>519609</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>605750</v>
+        <v>607236</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1673623505378715</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1543744919218704</v>
+        <v>0.1537828639840245</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1792770574191164</v>
+        <v>0.1797167769174561</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>409</v>
@@ -12432,19 +12432,19 @@
         <v>440630</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>399951</v>
+        <v>404738</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>480984</v>
+        <v>489527</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1246672004308089</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1131578618719875</v>
+        <v>0.1145122518754956</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1360845413998778</v>
+        <v>0.1385017315413707</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>945</v>
@@ -12453,19 +12453,19 @@
         <v>1006122</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>946224</v>
+        <v>944889</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1065897</v>
+        <v>1069457</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1455343022359416</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1368701552403598</v>
+        <v>0.1366771065337171</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1541806446025965</v>
+        <v>0.154695694811953</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>915946</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>866898</v>
+        <v>866382</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>975531</v>
+        <v>971641</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2710821912207028</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2565659770030058</v>
+        <v>0.2564133738492952</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2887170551496751</v>
+        <v>0.2875656948338445</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>787</v>
@@ -12503,19 +12503,19 @@
         <v>827903</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>779041</v>
+        <v>784371</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>882617</v>
+        <v>881573</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2342383295491349</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2204137069383425</v>
+        <v>0.2219216663325117</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2497186046642292</v>
+        <v>0.2494231923681462</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1662</v>
@@ -12524,19 +12524,19 @@
         <v>1743849</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1678074</v>
+        <v>1671923</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1828164</v>
+        <v>1813176</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2522456350736951</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2427313666231982</v>
+        <v>0.2418416784808377</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2644416479761337</v>
+        <v>0.2622737294697846</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>793407</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>746650</v>
+        <v>740799</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>847482</v>
+        <v>839343</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2348158708690053</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2209776630399813</v>
+        <v>0.2192458518867763</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2508196524545369</v>
+        <v>0.2484109058780552</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>740</v>
@@ -12574,19 +12574,19 @@
         <v>770860</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>719986</v>
+        <v>722199</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>817872</v>
+        <v>817407</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2180992155840307</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2037054762369618</v>
+        <v>0.2043313550486873</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2314002049380399</v>
+        <v>0.2312685252326355</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1494</v>
@@ -12595,19 +12595,19 @@
         <v>1564268</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1491932</v>
+        <v>1490592</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1631586</v>
+        <v>1635041</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2262694210241838</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2158061778510566</v>
+        <v>0.2156122600056061</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2360068907301786</v>
+        <v>0.2365067469646903</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>256223</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>228114</v>
+        <v>227587</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>286370</v>
+        <v>288426</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.0758315485935586</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.06751247863102425</v>
+        <v>0.06735648920303375</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.08475357806733765</v>
+        <v>0.08536214562957006</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>292</v>
@@ -12645,19 +12645,19 @@
         <v>303947</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>271090</v>
+        <v>271449</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>341732</v>
+        <v>338595</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.08599551365166662</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.07669926925993296</v>
+        <v>0.07680104913424279</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.09668623890801317</v>
+        <v>0.09579848711736041</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>537</v>
@@ -12666,19 +12666,19 @@
         <v>560170</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>514225</v>
+        <v>514653</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>601720</v>
+        <v>605999</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.08102791210724045</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.07438200341772469</v>
+        <v>0.07444386702491246</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.08703810879119644</v>
+        <v>0.08765698282545609</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>847780</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>799942</v>
+        <v>797545</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>900036</v>
+        <v>896535</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2509080387788618</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2367498938090156</v>
+        <v>0.2360402923395712</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.266373453375124</v>
+        <v>0.2653373232507545</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1101</v>
@@ -12716,19 +12716,19 @@
         <v>1191108</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1134184</v>
+        <v>1133479</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1251793</v>
+        <v>1247463</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3369997407843589</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3208941943724503</v>
+        <v>0.3206946560197215</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3541694435877625</v>
+        <v>0.352944225957451</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1907</v>
@@ -12737,19 +12737,19 @@
         <v>2038888</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1954703</v>
+        <v>1963501</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2113379</v>
+        <v>2118684</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2949227295589391</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2827453617130269</v>
+        <v>0.2840179851875618</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3056977191490454</v>
+        <v>0.3064651038969134</v>
       </c>
     </row>
     <row r="57">
